--- a/Lab_5/Dataset.xlsx
+++ b/Lab_5/Dataset.xlsx
@@ -5,18 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\Documents\repos\CyberPhysics\Lab_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CyberPhysics\Lab_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3B44A9-A73D-455E-99B9-821E571433AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4D23C-83E5-4E00-B2D6-FFA97C353EDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7485" activeTab="1" xr2:uid="{8C120F4B-AD2E-4ED4-910E-1F69DECA8DE0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7485" xr2:uid="{8C120F4B-AD2E-4ED4-910E-1F69DECA8DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист3" sheetId="3" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$Q$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Лист3!$A$1:$Q$35</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>f</t>
   </si>
@@ -50,18 +54,6 @@
   </si>
   <si>
     <t>dPhi</t>
-  </si>
-  <si>
-    <t>0.4 1.2 2.8 3.1 3.3 3.6 3.9 4.1 4.4 4.6 4.9 5.1 5.2 5.3 5.4 5.5 5.5 5.5 5.5 5.5 5.4 5.3 5.3 5.2 8.1 4.4 3.9 3.5 3.3 3 2.9 2.8 2.7 2.7</t>
-  </si>
-  <si>
-    <t>2,9 3,5 4,6 4,8 4,9 5,1 5,2 5,3 5,4 5,4 5,4 5,4 5,4 5,3 5,2 5,1 4,9 4,7 4,6 4,4 4,2 4 3,9 3,7 3,6 2,4 1,7 1,2 0,9 0,6 0,4 0,3 0,2 0,2</t>
-  </si>
-  <si>
-    <t>2,5 2,4 2,1 2,1 2 2 1,9 1,9 0,8 1,8 1,7 1,7 1,6 1,6 1,6 1,7 1,7 1,7 1,8 1,8 1,9 1,9 1,9 2.0 2.0 2,2 2,3 2,4 2,4 2,4 2,5 2,5 2,5 2,5</t>
-  </si>
-  <si>
-    <t>3,7 6,8 11,6 12,2 12,9 13,6 14,2 14,8 15,4 15,8 16,2 16,5 16,6 16,7 16,6 16,5 16,2 15,4 15,6 15,2 14,8 14,4 14 13,6 13,2 9,9 7,5 6 5 3,7 2,9 2,3 1,9 1,6</t>
   </si>
   <si>
     <t>0,4 1,0 1,8 1,9 2,0 2,1 2,2 2,3 2,4 2,4 2,5 2,6 2,6 2,7 2,8 2,8 2,9 2,9 3,0 3,0 3,0 3,0 3,0 3,1 3,1 3,1 3,1 3,0 2,9 2,8 2,7 2,7 2,6 2,6</t>
@@ -135,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,12 +153,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -477,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CAD537-A225-407C-9EB5-544793E5FFBD}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:Q35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,31 +513,31 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -547,7 +550,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <f>10*0.001</f>
@@ -572,15 +575,15 @@
         <v>-62</v>
       </c>
       <c r="I2" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C2</f>
+        <f t="shared" ref="I2:I35" si="0" xml:space="preserve"> 2 * 3.14159 *C2</f>
         <v>12566.359999999999</v>
       </c>
       <c r="J2" s="3">
-        <f>$B$2 * I2</f>
+        <f t="shared" ref="J2:J35" si="1">$B$2 * I2</f>
         <v>125.66359999999999</v>
       </c>
       <c r="K2" s="3">
-        <f>1/($B$3 * I2)</f>
+        <f t="shared" ref="K2:K35" si="2">1/($B$3 * I2)</f>
         <v>795.77538762219126</v>
       </c>
       <c r="L2" s="3">
@@ -592,7 +595,7 @@
         <v>674.63605589251517</v>
       </c>
       <c r="N2" s="3">
-        <f>F2* 1000/G2</f>
+        <f t="shared" ref="N2:N35" si="3">F2* 1000/G2</f>
         <v>675.67567567567562</v>
       </c>
       <c r="O2" s="3">
@@ -604,7 +607,7 @@
         <v>1.54100833194436E-3</v>
       </c>
       <c r="Q2" s="3">
-        <f>COS(ATAN((D2-E2)/$B$4))</f>
+        <f t="shared" ref="Q2:Q35" si="4">COS(ATAN((D2-E2)/$B$4))</f>
         <v>0.97014250014533188</v>
       </c>
       <c r="R2" s="3"/>
@@ -618,7 +621,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <f>0.1*0.001*0.001</f>
@@ -643,39 +646,39 @@
         <v>-64</v>
       </c>
       <c r="I3" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C3</f>
+        <f t="shared" si="0"/>
         <v>18849.54</v>
       </c>
       <c r="J3" s="3">
-        <f>$B$2 * I3</f>
+        <f t="shared" si="1"/>
         <v>188.49540000000002</v>
       </c>
       <c r="K3" s="3">
-        <f>1/($B$3 * I3)</f>
+        <f t="shared" si="2"/>
         <v>530.51692508146084</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L35" si="0">J3-K3</f>
+        <f t="shared" ref="L3:L35" si="5">J3-K3</f>
         <v>-342.02152508146082</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M35" si="1">SQRT(($B$5*$B$5) + (L3*L3))</f>
+        <f t="shared" ref="M3:M35" si="6">SQRT(($B$5*$B$5) + (L3*L3))</f>
         <v>350.80296979793138</v>
       </c>
       <c r="N3" s="3">
-        <f>F3* 1000/G3</f>
+        <f t="shared" si="3"/>
         <v>352.94117647058823</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O35" si="2">ABS(M3-N3)</f>
+        <f t="shared" ref="O3:O35" si="7">ABS(M3-N3)</f>
         <v>2.1382066726568496</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P35" si="3">O3/M3</f>
+        <f t="shared" ref="P3:P35" si="8">O3/M3</f>
         <v>6.0951783671856991E-3</v>
       </c>
       <c r="Q3" s="3">
-        <f>COS(ATAN((D3-E3)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97455518661489959</v>
       </c>
       <c r="R3" s="3"/>
@@ -689,7 +692,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -713,39 +716,39 @@
         <v>-56</v>
       </c>
       <c r="I4" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C4</f>
+        <f t="shared" si="0"/>
         <v>24504.401999999998</v>
       </c>
       <c r="J4" s="3">
-        <f>$B$2 * I4</f>
+        <f t="shared" si="1"/>
         <v>245.04401999999999</v>
       </c>
       <c r="K4" s="3">
-        <f>1/($B$3 * I4)</f>
+        <f t="shared" si="2"/>
         <v>408.08994237035455</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-163.04592237035456</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>180.74283610035471</v>
       </c>
       <c r="N4" s="3">
-        <f>F4* 1000/G4</f>
+        <f t="shared" si="3"/>
         <v>181.0344827586207</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0.29164665826598934</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.6136000992263782E-3</v>
       </c>
       <c r="Q4" s="3">
-        <f>COS(ATAN((D4-E4)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98418332397369535</v>
       </c>
       <c r="R4" s="3"/>
@@ -759,7 +762,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>78</v>
@@ -783,39 +786,39 @@
         <v>-53</v>
       </c>
       <c r="I5" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C5</f>
+        <f t="shared" si="0"/>
         <v>25132.719999999998</v>
       </c>
       <c r="J5" s="3">
-        <f>$B$2 * I5</f>
+        <f t="shared" si="1"/>
         <v>251.32719999999998</v>
       </c>
       <c r="K5" s="3">
-        <f>1/($B$3 * I5)</f>
+        <f t="shared" si="2"/>
         <v>397.88769381109563</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-146.56049381109565</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>166.02402942391265</v>
       </c>
       <c r="N5" s="3">
-        <f>F5* 1000/G5</f>
+        <f t="shared" si="3"/>
         <v>172.13114754098362</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.1071181170709679</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.6784543407734877E-2</v>
       </c>
       <c r="Q5" s="3">
-        <f>COS(ATAN((D5-E5)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9858558466698174</v>
       </c>
       <c r="R5" s="3"/>
@@ -829,7 +832,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <f>SQRT(B2/B3)/B5</f>
@@ -854,39 +857,39 @@
         <v>-51</v>
       </c>
       <c r="I6" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C6</f>
+        <f t="shared" si="0"/>
         <v>25761.038</v>
       </c>
       <c r="J6" s="3">
-        <f>$B$2 * I6</f>
+        <f t="shared" si="1"/>
         <v>257.61038000000002</v>
       </c>
       <c r="K6" s="3">
-        <f>1/($B$3 * I6)</f>
+        <f t="shared" si="2"/>
         <v>388.18311591326398</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-130.57273591326395</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>152.09615170633006</v>
       </c>
       <c r="N6" s="3">
-        <f>F6* 1000/G6</f>
+        <f t="shared" si="3"/>
         <v>155.03875968992247</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2.9426079835924099</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.9347024566894036E-2</v>
       </c>
       <c r="Q6" s="3">
-        <f>COS(ATAN((D6-E6)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98744063191670539</v>
       </c>
       <c r="R6" s="3"/>
@@ -918,39 +921,39 @@
         <v>-47</v>
       </c>
       <c r="I7" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C7</f>
+        <f t="shared" si="0"/>
         <v>26389.356</v>
       </c>
       <c r="J7" s="3">
-        <f>$B$2 * I7</f>
+        <f t="shared" si="1"/>
         <v>263.89355999999998</v>
       </c>
       <c r="K7" s="3">
-        <f>1/($B$3 * I7)</f>
+        <f t="shared" si="2"/>
         <v>378.94066077247203</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-115.04710077247205</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>138.99581071439289</v>
       </c>
       <c r="N7" s="3">
-        <f>F7* 1000/G7</f>
+        <f t="shared" si="3"/>
         <v>147.05882352941177</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.0630128150188796</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.8009034758512774E-2</v>
       </c>
       <c r="Q7" s="3">
-        <f>COS(ATAN((D7-E7)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98893635286829751</v>
       </c>
       <c r="R7" s="3"/>
@@ -982,39 +985,39 @@
         <v>-43</v>
       </c>
       <c r="I8" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C8</f>
+        <f t="shared" si="0"/>
         <v>27017.673999999999</v>
       </c>
       <c r="J8" s="3">
-        <f>$B$2 * I8</f>
+        <f t="shared" si="1"/>
         <v>270.17674</v>
       </c>
       <c r="K8" s="3">
-        <f>1/($B$3 * I8)</f>
+        <f t="shared" si="2"/>
         <v>370.12808726613548</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-99.951347266135485</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>126.78435163818763</v>
       </c>
       <c r="N8" s="3">
-        <f>F8* 1000/G8</f>
+        <f t="shared" si="3"/>
         <v>133.80281690140845</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>7.0184652632208184</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.5357504081022933E-2</v>
       </c>
       <c r="Q8" s="3">
-        <f>COS(ATAN((D8-E8)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99165561734323782</v>
       </c>
       <c r="R8" s="3"/>
@@ -1046,39 +1049,39 @@
         <v>-38</v>
       </c>
       <c r="I9" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C9</f>
+        <f t="shared" si="0"/>
         <v>27645.991999999998</v>
       </c>
       <c r="J9" s="3">
-        <f>$B$2 * I9</f>
+        <f t="shared" si="1"/>
         <v>276.45992000000001</v>
       </c>
       <c r="K9" s="3">
-        <f>1/($B$3 * I9)</f>
+        <f t="shared" si="2"/>
         <v>361.71608528281422</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-85.256165282814209</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>115.55351019649095</v>
       </c>
       <c r="N9" s="3">
-        <f>F9* 1000/G9</f>
+        <f t="shared" si="3"/>
         <v>128.37837837837839</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>12.824868181887439</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.11098640067341629</v>
       </c>
       <c r="Q9" s="3">
-        <f>COS(ATAN((D9-E9)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9928768384869221</v>
       </c>
       <c r="R9" s="3"/>
@@ -1110,39 +1113,39 @@
         <v>-34</v>
       </c>
       <c r="I10" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C10</f>
+        <f t="shared" si="0"/>
         <v>28274.309999999998</v>
       </c>
       <c r="J10" s="3">
-        <f>$B$2 * I10</f>
+        <f t="shared" si="1"/>
         <v>282.74309999999997</v>
       </c>
       <c r="K10" s="3">
-        <f>1/($B$3 * I10)</f>
+        <f t="shared" si="2"/>
         <v>353.67795005430725</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-70.934850054307276</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>105.43127122551002</v>
       </c>
       <c r="N10" s="3">
-        <f>F10* 1000/G10</f>
+        <f t="shared" si="3"/>
         <v>116.88311688311688</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>11.451845657606867</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.10861906078237624</v>
       </c>
       <c r="Q10" s="3">
-        <f>COS(ATAN((D10-E10)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99503719020998915</v>
       </c>
       <c r="R10" s="3"/>
@@ -1174,39 +1177,39 @@
         <v>-27</v>
       </c>
       <c r="I11" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C11</f>
+        <f t="shared" si="0"/>
         <v>28902.628000000001</v>
       </c>
       <c r="J11" s="3">
-        <f>$B$2 * I11</f>
+        <f t="shared" si="1"/>
         <v>289.02627999999999</v>
       </c>
       <c r="K11" s="3">
-        <f>1/($B$3 * I11)</f>
+        <f t="shared" si="2"/>
         <v>345.98929896617005</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-56.963018966170068</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>96.585638320302323</v>
       </c>
       <c r="N11" s="3">
-        <f>F11* 1000/G11</f>
+        <f t="shared" si="3"/>
         <v>113.92405063291139</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>17.338412312609066</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17951335844683783</v>
       </c>
       <c r="Q11" s="3">
-        <f>COS(ATAN((D11-E11)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99681527853612495</v>
       </c>
       <c r="R11" s="3"/>
@@ -1238,39 +1241,39 @@
         <v>-21</v>
       </c>
       <c r="I12" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C12</f>
+        <f t="shared" si="0"/>
         <v>29530.946</v>
       </c>
       <c r="J12" s="3">
-        <f>$B$2 * I12</f>
+        <f t="shared" si="1"/>
         <v>295.30946</v>
       </c>
       <c r="K12" s="3">
-        <f>1/($B$3 * I12)</f>
+        <f t="shared" si="2"/>
         <v>338.62782452008139</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-43.318364520081388</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>89.22152601639722</v>
       </c>
       <c r="N12" s="3">
-        <f>F12* 1000/G12</f>
+        <f t="shared" si="3"/>
         <v>104.93827160493828</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>15.716745588541059</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17615418935619437</v>
       </c>
       <c r="Q12" s="3">
-        <f>COS(ATAN((D12-E12)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99875233887784465</v>
       </c>
       <c r="R12" s="3"/>
@@ -1302,39 +1305,39 @@
         <v>-14</v>
       </c>
       <c r="I13" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C13</f>
+        <f t="shared" si="0"/>
         <v>30159.263999999999</v>
       </c>
       <c r="J13" s="3">
-        <f>$B$2 * I13</f>
+        <f t="shared" si="1"/>
         <v>301.59264000000002</v>
       </c>
       <c r="K13" s="3">
-        <f>1/($B$3 * I13)</f>
+        <f t="shared" si="2"/>
         <v>331.57307817591305</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-29.980438175913037</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>83.563309372114645</v>
       </c>
       <c r="N13" s="3">
-        <f>F13* 1000/G13</f>
+        <f t="shared" si="3"/>
         <v>103.03030303030303</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>19.466993658188386</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.23296101847163783</v>
       </c>
       <c r="Q13" s="3">
-        <f>COS(ATAN((D13-E13)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99955030352236673</v>
       </c>
       <c r="R13" s="3"/>
@@ -1366,39 +1369,39 @@
         <v>-7</v>
       </c>
       <c r="I14" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C14</f>
+        <f t="shared" si="0"/>
         <v>30787.581999999999</v>
       </c>
       <c r="J14" s="3">
-        <f>$B$2 * I14</f>
+        <f t="shared" si="1"/>
         <v>307.87581999999998</v>
       </c>
       <c r="K14" s="3">
-        <f>1/($B$3 * I14)</f>
+        <f t="shared" si="2"/>
         <v>324.80628066211887</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-16.93046066211889</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>79.816292185440162</v>
       </c>
       <c r="N14" s="3">
-        <f>F14* 1000/G14</f>
+        <f t="shared" si="3"/>
         <v>96.385542168674689</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>16.569249983234528</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.20759232895382526</v>
       </c>
       <c r="Q14" s="3">
-        <f>COS(ATAN((D14-E14)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99980005998000698</v>
       </c>
       <c r="R14" s="3"/>
@@ -1410,69 +1413,69 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="3">
+    <row r="15" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8">
         <v>5000</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="8">
         <v>5.3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="8">
         <v>5.3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="8">
         <v>1.6</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="8">
         <v>16.7</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="8">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C15</f>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
         <v>31415.899999999998</v>
       </c>
-      <c r="J15" s="3">
-        <f>$B$2 * I15</f>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
         <v>314.15899999999999</v>
       </c>
-      <c r="K15" s="3">
-        <f>1/($B$3 * I15)</f>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
         <v>318.31015504887654</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="0"/>
+      <c r="L15" s="8">
+        <f t="shared" si="5"/>
         <v>-4.1511550488765465</v>
       </c>
-      <c r="M15" s="3">
-        <f t="shared" si="1"/>
+      <c r="M15" s="8">
+        <f t="shared" si="6"/>
         <v>78.110383997518625</v>
       </c>
-      <c r="N15" s="3">
-        <f>F15* 1000/G15</f>
+      <c r="N15" s="8">
+        <f t="shared" si="3"/>
         <v>95.808383233532936</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="2"/>
+      <c r="O15" s="8">
+        <f t="shared" si="7"/>
         <v>17.697999236014311</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="3"/>
+      <c r="P15" s="9">
+        <f t="shared" si="8"/>
         <v>0.22657677929961953</v>
       </c>
-      <c r="Q15" s="3">
-        <f>COS(ATAN((D15-E15)/$B$4))</f>
+      <c r="Q15" s="8">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
@@ -1494,39 +1497,39 @@
         <v>7</v>
       </c>
       <c r="I16" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C16</f>
+        <f t="shared" si="0"/>
         <v>32044.217999999997</v>
       </c>
       <c r="J16" s="3">
-        <f>$B$2 * I16</f>
+        <f t="shared" si="1"/>
         <v>320.44217999999995</v>
       </c>
       <c r="K16" s="3">
-        <f>1/($B$3 * I16)</f>
+        <f t="shared" si="2"/>
         <v>312.06877945968284</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.3734005403171068</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>78.448160186256644</v>
       </c>
       <c r="N16" s="3">
-        <f>F16* 1000/G16</f>
+        <f t="shared" si="3"/>
         <v>96.385542168674689</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>17.937381982418046</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.22865267891343743</v>
       </c>
       <c r="Q16" s="3">
-        <f>COS(ATAN((D16-E16)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99980005998000698</v>
       </c>
       <c r="R16" s="3"/>
@@ -1558,39 +1561,39 @@
         <v>14</v>
       </c>
       <c r="I17" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C17</f>
+        <f t="shared" si="0"/>
         <v>32672.536</v>
       </c>
       <c r="J17" s="3">
-        <f>$B$2 * I17</f>
+        <f t="shared" si="1"/>
         <v>326.72536000000002</v>
       </c>
       <c r="K17" s="3">
-        <f>1/($B$3 * I17)</f>
+        <f t="shared" si="2"/>
         <v>306.06745677776587</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>20.657903222234154</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>80.689212200511605</v>
       </c>
       <c r="N17" s="3">
-        <f>F17* 1000/G17</f>
+        <f t="shared" si="3"/>
         <v>103.03030303030303</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>22.341090829791426</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.27687828670670517</v>
       </c>
       <c r="Q17" s="3">
-        <f>COS(ATAN((D17-E17)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99920095872178938</v>
       </c>
       <c r="R17" s="3"/>
@@ -1622,39 +1625,39 @@
         <v>20</v>
       </c>
       <c r="I18" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C18</f>
+        <f t="shared" si="0"/>
         <v>33300.853999999999</v>
       </c>
       <c r="J18" s="3">
-        <f>$B$2 * I18</f>
+        <f t="shared" si="1"/>
         <v>333.00853999999998</v>
       </c>
       <c r="K18" s="3">
-        <f>1/($B$3 * I18)</f>
+        <f t="shared" si="2"/>
         <v>300.29259910271367</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>32.715940897286316</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>84.583289063471227</v>
       </c>
       <c r="N18" s="3">
-        <f>F18* 1000/G18</f>
+        <f t="shared" si="3"/>
         <v>104.93827160493828</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>20.354982541467052</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.24065016585241431</v>
       </c>
       <c r="Q18" s="3">
-        <f>COS(ATAN((D18-E18)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9982048454657787</v>
       </c>
       <c r="R18" s="3"/>
@@ -1686,39 +1689,39 @@
         <v>25</v>
       </c>
       <c r="I19" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C19</f>
+        <f t="shared" si="0"/>
         <v>33929.171999999999</v>
       </c>
       <c r="J19" s="3">
-        <f>$B$2 * I19</f>
+        <f t="shared" si="1"/>
         <v>339.29172</v>
       </c>
       <c r="K19" s="3">
-        <f>1/($B$3 * I19)</f>
+        <f t="shared" si="2"/>
         <v>294.73162504525601</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>44.560094954743988</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>89.830963828603117</v>
       </c>
       <c r="N19" s="3">
-        <f>F19* 1000/G19</f>
+        <f t="shared" si="3"/>
         <v>110.38961038961038</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>20.558646561007265</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.2288592450174867</v>
       </c>
       <c r="Q19" s="3">
-        <f>COS(ATAN((D19-E19)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99681527853612495</v>
       </c>
       <c r="R19" s="3"/>
@@ -1750,39 +1753,39 @@
         <v>30</v>
       </c>
       <c r="I20" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C20</f>
+        <f t="shared" si="0"/>
         <v>34557.49</v>
       </c>
       <c r="J20" s="3">
-        <f>$B$2 * I20</f>
+        <f t="shared" si="1"/>
         <v>345.57490000000001</v>
       </c>
       <c r="K20" s="3">
-        <f>1/($B$3 * I20)</f>
+        <f t="shared" si="2"/>
         <v>289.3728682262514</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>56.202031773748615</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>96.138797451899975</v>
       </c>
       <c r="N20" s="3">
-        <f>F20* 1000/G20</f>
+        <f t="shared" si="3"/>
         <v>115.38461538461539</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>19.245817932715411</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.20018783719803079</v>
       </c>
       <c r="Q20" s="3">
-        <f>COS(ATAN((D20-E20)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99597443884322878</v>
       </c>
       <c r="R20" s="3"/>
@@ -1814,39 +1817,39 @@
         <v>34</v>
       </c>
       <c r="I21" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C21</f>
+        <f t="shared" si="0"/>
         <v>35185.807999999997</v>
       </c>
       <c r="J21" s="3">
-        <f>$B$2 * I21</f>
+        <f t="shared" si="1"/>
         <v>351.85807999999997</v>
       </c>
       <c r="K21" s="3">
-        <f>1/($B$3 * I21)</f>
+        <f t="shared" si="2"/>
         <v>284.20549557935402</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>67.652584420645951</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>103.25149964427939</v>
       </c>
       <c r="N21" s="3">
-        <f>F21* 1000/G21</f>
+        <f t="shared" si="3"/>
         <v>118.42105263157896</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>15.169552987299568</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.14691847614379935</v>
       </c>
       <c r="Q21" s="3">
-        <f>COS(ATAN((D21-E21)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9940043559354329</v>
       </c>
       <c r="R21" s="3"/>
@@ -1878,39 +1881,39 @@
         <v>38</v>
       </c>
       <c r="I22" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C22</f>
+        <f t="shared" si="0"/>
         <v>35814.125999999997</v>
       </c>
       <c r="J22" s="3">
-        <f>$B$2 * I22</f>
+        <f t="shared" si="1"/>
         <v>358.14125999999999</v>
       </c>
       <c r="K22" s="3">
-        <f>1/($B$3 * I22)</f>
+        <f t="shared" si="2"/>
         <v>279.21943425340044</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>78.921825746599552</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>110.96240164657857</v>
       </c>
       <c r="N22" s="3">
-        <f>F22* 1000/G22</f>
+        <f t="shared" si="3"/>
         <v>128.37837837837839</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>17.415976731799816</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.15695385530020045</v>
       </c>
       <c r="Q22" s="3">
-        <f>COS(ATAN((D22-E22)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9928768384869221</v>
       </c>
       <c r="R22" s="3"/>
@@ -1942,39 +1945,39 @@
         <v>42</v>
       </c>
       <c r="I23" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C23</f>
+        <f t="shared" si="0"/>
         <v>36442.443999999996</v>
       </c>
       <c r="J23" s="3">
-        <f>$B$2 * I23</f>
+        <f t="shared" si="1"/>
         <v>364.42443999999995</v>
       </c>
       <c r="K23" s="3">
-        <f>1/($B$3 * I23)</f>
+        <f t="shared" si="2"/>
         <v>274.40530607661771</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>90.019133923382242</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>119.11105940388502</v>
       </c>
       <c r="N23" s="3">
-        <f>F23* 1000/G23</f>
+        <f t="shared" si="3"/>
         <v>131.94444444444443</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>12.833385040559406</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.10774301819483961</v>
       </c>
       <c r="Q23" s="3">
-        <f>COS(ATAN((D23-E23)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99165561734323782</v>
       </c>
       <c r="R23" s="3"/>
@@ -2006,39 +2009,39 @@
         <v>44</v>
       </c>
       <c r="I24" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C24</f>
+        <f t="shared" si="0"/>
         <v>37070.761999999995</v>
       </c>
       <c r="J24" s="3">
-        <f>$B$2 * I24</f>
+        <f t="shared" si="1"/>
         <v>370.70761999999996</v>
       </c>
       <c r="K24" s="3">
-        <f>1/($B$3 * I24)</f>
+        <f t="shared" si="2"/>
         <v>269.7543686854886</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>100.95325131451136</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>127.57569890449705</v>
       </c>
       <c r="N24" s="3">
-        <f>F24* 1000/G24</f>
+        <f t="shared" si="3"/>
         <v>135.71428571428572</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8.1385868097886771</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.3794177728794643E-2</v>
       </c>
       <c r="Q24" s="3">
-        <f>COS(ATAN((D24-E24)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99034174667433017</v>
       </c>
       <c r="R24" s="3"/>
@@ -2070,39 +2073,39 @@
         <v>47</v>
       </c>
       <c r="I25" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C25</f>
+        <f t="shared" si="0"/>
         <v>37699.08</v>
       </c>
       <c r="J25" s="3">
-        <f>$B$2 * I25</f>
+        <f t="shared" si="1"/>
         <v>376.99080000000004</v>
       </c>
       <c r="K25" s="3">
-        <f>1/($B$3 * I25)</f>
+        <f t="shared" si="2"/>
         <v>265.25846254073042</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>111.73233745926962</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>136.26487160714643</v>
       </c>
       <c r="N25" s="3">
-        <f>F25* 1000/G25</f>
+        <f t="shared" si="3"/>
         <v>147.05882352941177</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>10.793951922265336</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7.9213019430161374E-2</v>
       </c>
       <c r="Q25" s="3">
-        <f>COS(ATAN((D25-E25)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98893635286829751</v>
       </c>
       <c r="R25" s="3"/>
@@ -2134,39 +2137,39 @@
         <v>49</v>
       </c>
       <c r="I26" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C26</f>
+        <f t="shared" si="0"/>
         <v>38327.398000000001</v>
       </c>
       <c r="J26" s="3">
-        <f>$B$2 * I26</f>
+        <f t="shared" si="1"/>
         <v>383.27397999999999</v>
       </c>
       <c r="K26" s="3">
-        <f>1/($B$3 * I26)</f>
+        <f t="shared" si="2"/>
         <v>260.90996315481681</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>122.36401684518319</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>145.11013961294461</v>
       </c>
       <c r="N26" s="3">
-        <f>F26* 1000/G26</f>
+        <f t="shared" si="3"/>
         <v>159.09090909090909</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>13.980769477964486</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.6345917075510323E-2</v>
       </c>
       <c r="Q26" s="3">
-        <f>COS(ATAN((D26-E26)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98893635286829751</v>
       </c>
       <c r="R26" s="3"/>
@@ -2198,39 +2201,39 @@
         <v>62</v>
       </c>
       <c r="I27" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C27</f>
+        <f t="shared" si="0"/>
         <v>43982.259999999995</v>
       </c>
       <c r="J27" s="3">
-        <f>$B$2 * I27</f>
+        <f t="shared" si="1"/>
         <v>439.82259999999997</v>
       </c>
       <c r="K27" s="3">
-        <f>1/($B$3 * I27)</f>
+        <f t="shared" si="2"/>
         <v>227.36439646348325</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>212.45820353651672</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>226.32385700576057</v>
       </c>
       <c r="N27" s="3">
-        <f>F27* 1000/G27</f>
+        <f t="shared" si="3"/>
         <v>222.2222222222222</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.1016347835383726</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.8122856502193557E-2</v>
       </c>
       <c r="Q27" s="3">
-        <f>COS(ATAN((D27-E27)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98058067569092011</v>
       </c>
       <c r="R27" s="3"/>
@@ -2262,39 +2265,39 @@
         <v>66</v>
       </c>
       <c r="I28" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C28</f>
+        <f t="shared" si="0"/>
         <v>50265.439999999995</v>
       </c>
       <c r="J28" s="3">
-        <f>$B$2 * I28</f>
+        <f t="shared" si="1"/>
         <v>502.65439999999995</v>
       </c>
       <c r="K28" s="3">
-        <f>1/($B$3 * I28)</f>
+        <f t="shared" si="2"/>
         <v>198.94384690554782</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>303.71055309445217</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>313.56673940476855</v>
       </c>
       <c r="N28" s="3">
-        <f>F28* 1000/G28</f>
+        <f t="shared" si="3"/>
         <v>306.66666666666669</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6.9000727381018692</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.2005116841154793E-2</v>
       </c>
       <c r="Q28" s="3">
-        <f>COS(ATAN((D28-E28)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97664446670508998</v>
       </c>
       <c r="R28" s="3"/>
@@ -2326,39 +2329,39 @@
         <v>70</v>
       </c>
       <c r="I29" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C29</f>
+        <f t="shared" si="0"/>
         <v>56548.619999999995</v>
       </c>
       <c r="J29" s="3">
-        <f>$B$2 * I29</f>
+        <f t="shared" si="1"/>
         <v>565.48619999999994</v>
       </c>
       <c r="K29" s="3">
-        <f>1/($B$3 * I29)</f>
+        <f t="shared" si="2"/>
         <v>176.83897502715362</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>388.64722497284629</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>396.39710579051177</v>
       </c>
       <c r="N29" s="3">
-        <f>F29* 1000/G29</f>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>3.6028942094882268</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.0891032170963594E-3</v>
       </c>
       <c r="Q29" s="3">
-        <f>COS(ATAN((D29-E29)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97455518661489959</v>
       </c>
       <c r="R29" s="3"/>
@@ -2390,39 +2393,39 @@
         <v>72</v>
       </c>
       <c r="I30" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C30</f>
+        <f t="shared" si="0"/>
         <v>62831.799999999996</v>
       </c>
       <c r="J30" s="3">
-        <f>$B$2 * I30</f>
+        <f t="shared" si="1"/>
         <v>628.31799999999998</v>
       </c>
       <c r="K30" s="3">
-        <f>1/($B$3 * I30)</f>
+        <f t="shared" si="2"/>
         <v>159.15507752443827</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>469.16292247556169</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>475.60261545307958</v>
       </c>
       <c r="N30" s="3">
-        <f>F30* 1000/G30</f>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4.3973845469204207</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9.2459217086753864E-3</v>
       </c>
       <c r="Q30" s="3">
-        <f>COS(ATAN((D30-E30)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97238730198051748</v>
       </c>
       <c r="R30" s="3"/>
@@ -2454,39 +2457,39 @@
         <v>70</v>
       </c>
       <c r="I31" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C31</f>
+        <f t="shared" si="0"/>
         <v>75398.16</v>
       </c>
       <c r="J31" s="3">
-        <f>$B$2 * I31</f>
+        <f t="shared" si="1"/>
         <v>753.98160000000007</v>
       </c>
       <c r="K31" s="3">
-        <f>1/($B$3 * I31)</f>
+        <f t="shared" si="2"/>
         <v>132.62923127036521</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>621.35236872963492</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>626.22900453901707</v>
       </c>
       <c r="N31" s="3">
-        <f>F31* 1000/G31</f>
+        <f t="shared" si="3"/>
         <v>648.64864864864865</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>22.419644109631577</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.5801031167719932E-2</v>
       </c>
       <c r="Q31" s="3">
-        <f>COS(ATAN((D31-E31)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97238730198051748</v>
       </c>
       <c r="R31" s="3"/>
@@ -2518,39 +2521,39 @@
         <v>66</v>
       </c>
       <c r="I32" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C32</f>
+        <f t="shared" si="0"/>
         <v>87964.51999999999</v>
       </c>
       <c r="J32" s="3">
-        <f>$B$2 * I32</f>
+        <f t="shared" si="1"/>
         <v>879.64519999999993</v>
       </c>
       <c r="K32" s="3">
-        <f>1/($B$3 * I32)</f>
+        <f t="shared" si="2"/>
         <v>113.68219823174162</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>765.96300176825832</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>769.92423008880621</v>
       </c>
       <c r="N32" s="3">
-        <f>F32* 1000/G32</f>
+        <f t="shared" si="3"/>
         <v>862.06896551724139</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>92.144735428435183</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.11968026440446852</v>
       </c>
       <c r="Q32" s="3">
-        <f>COS(ATAN((D32-E32)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97014250014533188</v>
       </c>
       <c r="R32" s="3"/>
@@ -2582,39 +2585,39 @@
         <v>66</v>
       </c>
       <c r="I33" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C33</f>
+        <f t="shared" si="0"/>
         <v>100530.87999999999</v>
       </c>
       <c r="J33" s="3">
-        <f>$B$2 * I33</f>
+        <f t="shared" si="1"/>
         <v>1005.3087999999999</v>
       </c>
       <c r="K33" s="3">
-        <f>1/($B$3 * I33)</f>
+        <f t="shared" si="2"/>
         <v>99.471923452773908</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>905.83687654722598</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>909.18889506682513</v>
       </c>
       <c r="N33" s="3">
-        <f>F33* 1000/G33</f>
+        <f t="shared" si="3"/>
         <v>1086.9565217391305</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>177.76762667230537</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.19552331494242403</v>
       </c>
       <c r="Q33" s="3">
-        <f>COS(ATAN((D33-E33)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97014250014533188</v>
       </c>
       <c r="R33" s="3"/>
@@ -2646,39 +2649,39 @@
         <v>62</v>
       </c>
       <c r="I34" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C34</f>
+        <f t="shared" si="0"/>
         <v>113097.23999999999</v>
       </c>
       <c r="J34" s="3">
-        <f>$B$2 * I34</f>
+        <f t="shared" si="1"/>
         <v>1130.9723999999999</v>
       </c>
       <c r="K34" s="3">
-        <f>1/($B$3 * I34)</f>
+        <f t="shared" si="2"/>
         <v>88.419487513576811</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1042.5529124864231</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1045.4666782513555</v>
       </c>
       <c r="N34" s="3">
-        <f>F34* 1000/G34</f>
+        <f t="shared" si="3"/>
         <v>1315.7894736842106</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>270.32279543285517</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.25856662967488958</v>
       </c>
       <c r="Q34" s="3">
-        <f>COS(ATAN((D34-E34)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97014250014533188</v>
       </c>
       <c r="R34" s="3"/>
@@ -2710,39 +2713,39 @@
         <v>56</v>
       </c>
       <c r="I35" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C35</f>
+        <f t="shared" si="0"/>
         <v>125663.59999999999</v>
       </c>
       <c r="J35" s="3">
-        <f>$B$2 * I35</f>
+        <f t="shared" si="1"/>
         <v>1256.636</v>
       </c>
       <c r="K35" s="3">
-        <f>1/($B$3 * I35)</f>
+        <f t="shared" si="2"/>
         <v>79.577538762219135</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1177.0584612377809</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1179.6400388133036</v>
       </c>
       <c r="N35" s="3">
-        <f>F35* 1000/G35</f>
+        <f t="shared" si="3"/>
         <v>1562.5</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>382.85996118669641</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.32455660081853999</v>
       </c>
       <c r="Q35" s="3">
-        <f>COS(ATAN((D35-E35)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97014250014533188</v>
       </c>
       <c r="R35" s="3"/>
@@ -2825,7 +2828,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
@@ -2852,7 +2855,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -2860,32 +2863,40 @@
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.25">
       <c r="V40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.25">
       <c r="V41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC74E243-65A3-4BE4-A873-0A5C433422EA}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q35" sqref="A1:Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -2908,31 +2919,31 @@
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -2941,7 +2952,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <f>10*0.001</f>
@@ -2966,15 +2977,15 @@
         <v>-54</v>
       </c>
       <c r="I2" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C2</f>
+        <f t="shared" ref="I2:I35" si="0" xml:space="preserve"> 2 * 3.14159 *C2</f>
         <v>12566.359999999999</v>
       </c>
       <c r="J2" s="3">
-        <f>$B$2 * I2</f>
+        <f t="shared" ref="J2:J35" si="1">$B$2 * I2</f>
         <v>125.66359999999999</v>
       </c>
       <c r="K2" s="3">
-        <f>1/($B$3 * I2)</f>
+        <f t="shared" ref="K2:K35" si="2">1/($B$3 * I2)</f>
         <v>795.77538762219126</v>
       </c>
       <c r="L2" s="3">
@@ -2986,7 +2997,7 @@
         <v>725.4886683541024</v>
       </c>
       <c r="N2" s="3">
-        <f>F2* 1000/G2</f>
+        <f t="shared" ref="N2:N35" si="3">F2* 1000/G2</f>
         <v>648.64864864864865</v>
       </c>
       <c r="O2" s="3">
@@ -2998,7 +3009,7 @@
         <v>0.10591484478975909</v>
       </c>
       <c r="Q2" s="3">
-        <f>COS(ATAN((D2-E2)/$B$4))</f>
+        <f t="shared" ref="Q2:Q35" si="4">COS(ATAN((D2-E2)/$B$4))</f>
         <v>0.97455518661489959</v>
       </c>
       <c r="R2" s="3"/>
@@ -3008,7 +3019,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <f>0.1*0.001*0.001</f>
@@ -3033,39 +3044,39 @@
         <v>-50</v>
       </c>
       <c r="I3" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C3</f>
+        <f t="shared" si="0"/>
         <v>18849.54</v>
       </c>
       <c r="J3" s="3">
-        <f>$B$2 * I3</f>
+        <f t="shared" si="1"/>
         <v>188.49540000000002</v>
       </c>
       <c r="K3" s="3">
-        <f>1/($B$3 * I3)</f>
+        <f t="shared" si="2"/>
         <v>530.51692508146084</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L35" si="0">J3-K3</f>
+        <f t="shared" ref="L3:L35" si="5">J3-K3</f>
         <v>-342.02152508146082</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M35" si="1">SQRT(($B$5*$B$5) + (L3*L3))</f>
+        <f t="shared" ref="M3:M35" si="6">SQRT(($B$5*$B$5) + (L3*L3))</f>
         <v>440.75245163135321</v>
       </c>
       <c r="N3" s="3">
-        <f>F3* 1000/G3</f>
+        <f t="shared" si="3"/>
         <v>389.83050847457622</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O35" si="2">ABS(M3-N3)</f>
+        <f t="shared" ref="O3:O35" si="7">ABS(M3-N3)</f>
         <v>50.92194315677699</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P35" si="3">O3/M3</f>
+        <f t="shared" ref="P3:P35" si="8">O3/M3</f>
         <v>0.11553411210374451</v>
       </c>
       <c r="Q3" s="3">
-        <f>COS(ATAN((D3-E3)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98058067569092011</v>
       </c>
       <c r="R3" s="3"/>
@@ -3075,7 +3086,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -3099,39 +3110,39 @@
         <v>-35</v>
       </c>
       <c r="I4" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C4</f>
+        <f t="shared" si="0"/>
         <v>24504.401999999998</v>
       </c>
       <c r="J4" s="3">
-        <f>$B$2 * I4</f>
+        <f t="shared" si="1"/>
         <v>245.04401999999999</v>
       </c>
       <c r="K4" s="3">
-        <f>1/($B$3 * I4)</f>
+        <f t="shared" si="2"/>
         <v>408.08994237035455</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-163.04592237035456</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>322.28554544316705</v>
       </c>
       <c r="N4" s="3">
-        <f>F4* 1000/G4</f>
+        <f t="shared" si="3"/>
         <v>278.48101265822783</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>43.804532784939227</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.13591839101783071</v>
       </c>
       <c r="Q4" s="3">
-        <f>COS(ATAN((D4-E4)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99165561734323782</v>
       </c>
       <c r="R4" s="3"/>
@@ -3141,7 +3152,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>278</v>
@@ -3165,39 +3176,39 @@
         <v>-33</v>
       </c>
       <c r="I5" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C5</f>
+        <f t="shared" si="0"/>
         <v>25132.719999999998</v>
       </c>
       <c r="J5" s="3">
-        <f>$B$2 * I5</f>
+        <f t="shared" si="1"/>
         <v>251.32719999999998</v>
       </c>
       <c r="K5" s="3">
-        <f>1/($B$3 * I5)</f>
+        <f t="shared" si="2"/>
         <v>397.88769381109563</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-146.56049381109565</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>314.2673676125986</v>
       </c>
       <c r="N5" s="3">
-        <f>F5* 1000/G5</f>
+        <f t="shared" si="3"/>
         <v>271.60493827160496</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>42.66242934099364</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.13575201798738507</v>
       </c>
       <c r="Q5" s="3">
-        <f>COS(ATAN((D5-E5)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9928768384869221</v>
       </c>
       <c r="R5" s="3"/>
@@ -3207,7 +3218,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <f>SQRT(B2/B3)/B5</f>
@@ -3232,39 +3243,39 @@
         <v>-30</v>
       </c>
       <c r="I6" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C6</f>
+        <f t="shared" si="0"/>
         <v>25761.038</v>
       </c>
       <c r="J6" s="3">
-        <f>$B$2 * I6</f>
+        <f t="shared" si="1"/>
         <v>257.61038000000002</v>
       </c>
       <c r="K6" s="3">
-        <f>1/($B$3 * I6)</f>
+        <f t="shared" si="2"/>
         <v>388.18311591326398</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-130.57273591326395</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>307.13716701805237</v>
       </c>
       <c r="N6" s="3">
-        <f>F6* 1000/G6</f>
+        <f t="shared" si="3"/>
         <v>268.29268292682929</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>38.84448409122308</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.12647275635299438</v>
       </c>
       <c r="Q6" s="3">
-        <f>COS(ATAN((D6-E6)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9940043559354329</v>
       </c>
       <c r="R6" s="3"/>
@@ -3292,39 +3303,39 @@
         <v>-28</v>
       </c>
       <c r="I7" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C7</f>
+        <f t="shared" si="0"/>
         <v>26389.356</v>
       </c>
       <c r="J7" s="3">
-        <f>$B$2 * I7</f>
+        <f t="shared" si="1"/>
         <v>263.89355999999998</v>
       </c>
       <c r="K7" s="3">
-        <f>1/($B$3 * I7)</f>
+        <f t="shared" si="2"/>
         <v>378.94066077247203</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-115.04710077247205</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>300.86514486751594</v>
       </c>
       <c r="N7" s="3">
-        <f>F7* 1000/G7</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50.865144867515937</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16906293645252288</v>
       </c>
       <c r="Q7" s="3">
-        <f>COS(ATAN((D7-E7)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99503719020998915</v>
       </c>
       <c r="R7" s="3"/>
@@ -3352,39 +3363,39 @@
         <v>-26</v>
       </c>
       <c r="I8" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C8</f>
+        <f t="shared" si="0"/>
         <v>27017.673999999999</v>
       </c>
       <c r="J8" s="3">
-        <f>$B$2 * I8</f>
+        <f t="shared" si="1"/>
         <v>270.17674</v>
       </c>
       <c r="K8" s="3">
-        <f>1/($B$3 * I8)</f>
+        <f t="shared" si="2"/>
         <v>370.12808726613548</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-99.951347266135485</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>295.42219249798347</v>
       </c>
       <c r="N8" s="3">
-        <f>F8* 1000/G8</f>
+        <f t="shared" si="3"/>
         <v>247.05882352941177</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48.363368968571706</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16370932921331505</v>
       </c>
       <c r="Q8" s="3">
-        <f>COS(ATAN((D8-E8)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99597443884322878</v>
       </c>
       <c r="R8" s="3"/>
@@ -3412,39 +3423,39 @@
         <v>-22</v>
       </c>
       <c r="I9" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C9</f>
+        <f t="shared" si="0"/>
         <v>27645.991999999998</v>
       </c>
       <c r="J9" s="3">
-        <f>$B$2 * I9</f>
+        <f t="shared" si="1"/>
         <v>276.45992000000001</v>
       </c>
       <c r="K9" s="3">
-        <f>1/($B$3 * I9)</f>
+        <f t="shared" si="2"/>
         <v>361.71608528281422</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-85.256165282814209</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>290.77932133962094</v>
       </c>
       <c r="N9" s="3">
-        <f>F9* 1000/G9</f>
+        <f t="shared" si="3"/>
         <v>241.37931034482762</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>49.40001099479332</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16988832206914634</v>
       </c>
       <c r="Q9" s="3">
-        <f>COS(ATAN((D9-E9)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99755896714162673</v>
       </c>
       <c r="R9" s="3"/>
@@ -3472,39 +3483,39 @@
         <v>-19</v>
       </c>
       <c r="I10" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C10</f>
+        <f t="shared" si="0"/>
         <v>28274.309999999998</v>
       </c>
       <c r="J10" s="3">
-        <f>$B$2 * I10</f>
+        <f t="shared" si="1"/>
         <v>282.74309999999997</v>
       </c>
       <c r="K10" s="3">
-        <f>1/($B$3 * I10)</f>
+        <f t="shared" si="2"/>
         <v>353.67795005430725</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-70.934850054307276</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>286.90722011170624</v>
       </c>
       <c r="N10" s="3">
-        <f>F10* 1000/G10</f>
+        <f t="shared" si="3"/>
         <v>238.63636363636363</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48.270856475342612</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16824552709600177</v>
       </c>
       <c r="Q10" s="3">
-        <f>COS(ATAN((D10-E10)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9982048454657787</v>
       </c>
       <c r="R10" s="3"/>
@@ -3532,39 +3543,39 @@
         <v>-16</v>
       </c>
       <c r="I11" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C11</f>
+        <f t="shared" si="0"/>
         <v>28902.628000000001</v>
       </c>
       <c r="J11" s="3">
-        <f>$B$2 * I11</f>
+        <f t="shared" si="1"/>
         <v>289.02627999999999</v>
       </c>
       <c r="K11" s="3">
-        <f>1/($B$3 * I11)</f>
+        <f t="shared" si="2"/>
         <v>345.98929896617005</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-56.963018966170068</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>283.77594247881592</v>
       </c>
       <c r="N11" s="3">
-        <f>F11* 1000/G11</f>
+        <f t="shared" si="3"/>
         <v>235.95505617977528</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47.820886299040637</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.1685163508975413</v>
       </c>
       <c r="Q11" s="3">
-        <f>COS(ATAN((D11-E11)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9982048454657787</v>
       </c>
       <c r="R11" s="3"/>
@@ -3592,39 +3603,39 @@
         <v>-14</v>
       </c>
       <c r="I12" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C12</f>
+        <f t="shared" si="0"/>
         <v>29530.946</v>
       </c>
       <c r="J12" s="3">
-        <f>$B$2 * I12</f>
+        <f t="shared" si="1"/>
         <v>295.30946</v>
       </c>
       <c r="K12" s="3">
-        <f>1/($B$3 * I12)</f>
+        <f t="shared" si="2"/>
         <v>338.62782452008139</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-43.318364520081388</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>281.35472397792552</v>
       </c>
       <c r="N12" s="3">
-        <f>F12* 1000/G12</f>
+        <f t="shared" si="3"/>
         <v>235.95505617977528</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45.399667798150233</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16136095799732225</v>
       </c>
       <c r="Q12" s="3">
-        <f>COS(ATAN((D12-E12)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99875233887784465</v>
       </c>
       <c r="R12" s="3"/>
@@ -3652,39 +3663,39 @@
         <v>-11</v>
       </c>
       <c r="I13" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C13</f>
+        <f t="shared" si="0"/>
         <v>30159.263999999999</v>
       </c>
       <c r="J13" s="3">
-        <f>$B$2 * I13</f>
+        <f t="shared" si="1"/>
         <v>301.59264000000002</v>
       </c>
       <c r="K13" s="3">
-        <f>1/($B$3 * I13)</f>
+        <f t="shared" si="2"/>
         <v>331.57307817591305</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-29.980438175913037</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>279.61192155060149</v>
       </c>
       <c r="N13" s="3">
-        <f>F13* 1000/G13</f>
+        <f t="shared" si="3"/>
         <v>233.33333333333334</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46.278588217268151</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16551006824254128</v>
       </c>
       <c r="Q13" s="3">
-        <f>COS(ATAN((D13-E13)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99955030352236673</v>
       </c>
       <c r="R13" s="3"/>
@@ -3712,39 +3723,39 @@
         <v>-8</v>
       </c>
       <c r="I14" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C14</f>
+        <f t="shared" si="0"/>
         <v>30787.581999999999</v>
       </c>
       <c r="J14" s="3">
-        <f>$B$2 * I14</f>
+        <f t="shared" si="1"/>
         <v>307.87581999999998</v>
       </c>
       <c r="K14" s="3">
-        <f>1/($B$3 * I14)</f>
+        <f t="shared" si="2"/>
         <v>324.80628066211887</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-16.93046066211889</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>278.51506332374834</v>
       </c>
       <c r="N14" s="3">
-        <f>F14* 1000/G14</f>
+        <f t="shared" si="3"/>
         <v>233.33333333333334</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45.181729990414993</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16222364941854278</v>
       </c>
       <c r="Q14" s="3">
-        <f>COS(ATAN((D14-E14)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99955030352236673</v>
       </c>
       <c r="R14" s="3"/>
@@ -3752,125 +3763,125 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
         <v>5000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <v>2.7</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>2.8</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="6">
         <v>2.1</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="6">
         <v>9.1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="7">
         <v>-5</v>
       </c>
-      <c r="I15" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C15</f>
+      <c r="I15" s="8">
+        <f t="shared" si="0"/>
         <v>31415.899999999998</v>
       </c>
-      <c r="J15" s="3">
-        <f>$B$2 * I15</f>
+      <c r="J15" s="8">
+        <f t="shared" si="1"/>
         <v>314.15899999999999</v>
       </c>
-      <c r="K15" s="3">
-        <f>1/($B$3 * I15)</f>
+      <c r="K15" s="8">
+        <f t="shared" si="2"/>
         <v>318.31015504887654</v>
       </c>
-      <c r="L15" s="3">
-        <f t="shared" si="0"/>
+      <c r="L15" s="8">
+        <f t="shared" si="5"/>
         <v>-4.1511550488765465</v>
       </c>
-      <c r="M15" s="3">
-        <f t="shared" si="1"/>
+      <c r="M15" s="8">
+        <f t="shared" si="6"/>
         <v>278.03099123701986</v>
       </c>
-      <c r="N15" s="3">
-        <f>F15* 1000/G15</f>
+      <c r="N15" s="8">
+        <f t="shared" si="3"/>
         <v>230.76923076923077</v>
       </c>
-      <c r="O15" s="3">
-        <f t="shared" si="2"/>
+      <c r="O15" s="8">
+        <f t="shared" si="7"/>
         <v>47.261760467789088</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="3"/>
+      <c r="P15" s="9">
+        <f t="shared" si="8"/>
         <v>0.16998738254865517</v>
       </c>
-      <c r="Q15" s="3">
-        <f>COS(ATAN((D15-E15)/$B$4))</f>
+      <c r="Q15" s="8">
+        <f t="shared" si="4"/>
         <v>0.99995000374968757</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16">
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
         <v>5100</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>2.8</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>2.8</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>2.1</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
         <v>9.1</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="7">
         <v>-2</v>
       </c>
-      <c r="I16" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C16</f>
+      <c r="I16" s="8">
+        <f t="shared" si="0"/>
         <v>32044.217999999997</v>
       </c>
-      <c r="J16" s="3">
-        <f>$B$2 * I16</f>
+      <c r="J16" s="8">
+        <f t="shared" si="1"/>
         <v>320.44217999999995</v>
       </c>
-      <c r="K16" s="3">
-        <f>1/($B$3 * I16)</f>
+      <c r="K16" s="8">
+        <f t="shared" si="2"/>
         <v>312.06877945968284</v>
       </c>
-      <c r="L16" s="3">
-        <f t="shared" si="0"/>
+      <c r="L16" s="8">
+        <f t="shared" si="5"/>
         <v>8.3734005403171068</v>
       </c>
-      <c r="M16" s="3">
-        <f t="shared" si="1"/>
+      <c r="M16" s="8">
+        <f t="shared" si="6"/>
         <v>278.12607543452049</v>
       </c>
-      <c r="N16" s="3">
-        <f>F16* 1000/G16</f>
+      <c r="N16" s="8">
+        <f t="shared" si="3"/>
         <v>230.76923076923077</v>
       </c>
-      <c r="O16" s="3">
-        <f t="shared" si="2"/>
+      <c r="O16" s="8">
+        <f t="shared" si="7"/>
         <v>47.356844665289714</v>
       </c>
-      <c r="P16" s="4">
-        <f t="shared" si="3"/>
+      <c r="P16" s="9">
+        <f t="shared" si="8"/>
         <v>0.17027114265105642</v>
       </c>
-      <c r="Q16" s="3">
-        <f>COS(ATAN((D16-E16)/$B$4))</f>
+      <c r="Q16" s="8">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17">
@@ -3892,39 +3903,39 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C17</f>
+        <f t="shared" si="0"/>
         <v>32672.536</v>
       </c>
       <c r="J17" s="3">
-        <f>$B$2 * I17</f>
+        <f t="shared" si="1"/>
         <v>326.72536000000002</v>
       </c>
       <c r="K17" s="3">
-        <f>1/($B$3 * I17)</f>
+        <f t="shared" si="2"/>
         <v>306.06745677776587</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>20.657903222234154</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>278.76647747808414</v>
       </c>
       <c r="N17" s="3">
-        <f>F17* 1000/G17</f>
+        <f t="shared" si="3"/>
         <v>233.33333333333334</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45.433144144750798</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16297922388577954</v>
       </c>
       <c r="Q17" s="3">
-        <f>COS(ATAN((D17-E17)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99995000374968757</v>
       </c>
       <c r="R17" s="3"/>
@@ -3952,39 +3963,39 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C18</f>
+        <f t="shared" si="0"/>
         <v>33300.853999999999</v>
       </c>
       <c r="J18" s="3">
-        <f>$B$2 * I18</f>
+        <f t="shared" si="1"/>
         <v>333.00853999999998</v>
       </c>
       <c r="K18" s="3">
-        <f>1/($B$3 * I18)</f>
+        <f t="shared" si="2"/>
         <v>300.29259910271367</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>32.715940897286316</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>279.91843952979366</v>
       </c>
       <c r="N18" s="3">
-        <f>F18* 1000/G18</f>
+        <f t="shared" si="3"/>
         <v>233.33333333333334</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46.585106196460316</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16642385644444813</v>
       </c>
       <c r="Q18" s="3">
-        <f>COS(ATAN((D18-E18)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99980005998000698</v>
       </c>
       <c r="R18" s="3"/>
@@ -4012,39 +4023,39 @@
         <v>6</v>
       </c>
       <c r="I19" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C19</f>
+        <f t="shared" si="0"/>
         <v>33929.171999999999</v>
       </c>
       <c r="J19" s="3">
-        <f>$B$2 * I19</f>
+        <f t="shared" si="1"/>
         <v>339.29172</v>
       </c>
       <c r="K19" s="3">
-        <f>1/($B$3 * I19)</f>
+        <f t="shared" si="2"/>
         <v>294.73162504525601</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>44.560094954743988</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>281.54857851244037</v>
       </c>
       <c r="N19" s="3">
-        <f>F19* 1000/G19</f>
+        <f t="shared" si="3"/>
         <v>233.33333333333334</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48.215245179107029</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17125018152764929</v>
       </c>
       <c r="Q19" s="3">
-        <f>COS(ATAN((D19-E19)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99955030352236673</v>
       </c>
       <c r="R19" s="3"/>
@@ -4072,39 +4083,39 @@
         <v>9</v>
       </c>
       <c r="I20" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C20</f>
+        <f t="shared" si="0"/>
         <v>34557.49</v>
       </c>
       <c r="J20" s="3">
-        <f>$B$2 * I20</f>
+        <f t="shared" si="1"/>
         <v>345.57490000000001</v>
       </c>
       <c r="K20" s="3">
-        <f>1/($B$3 * I20)</f>
+        <f t="shared" si="2"/>
         <v>289.3728682262514</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>56.202031773748615</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>283.62416747431354</v>
       </c>
       <c r="N20" s="3">
-        <f>F20* 1000/G20</f>
+        <f t="shared" si="3"/>
         <v>235.95505617977528</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47.669111294538254</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.16807140138667984</v>
       </c>
       <c r="Q20" s="3">
-        <f>COS(ATAN((D20-E20)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99920095872178938</v>
       </c>
       <c r="R20" s="3"/>
@@ -4132,39 +4143,39 @@
         <v>11</v>
       </c>
       <c r="I21" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C21</f>
+        <f t="shared" si="0"/>
         <v>35185.807999999997</v>
       </c>
       <c r="J21" s="3">
-        <f>$B$2 * I21</f>
+        <f t="shared" si="1"/>
         <v>351.85807999999997</v>
       </c>
       <c r="K21" s="3">
-        <f>1/($B$3 * I21)</f>
+        <f t="shared" si="2"/>
         <v>284.20549557935402</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>67.652584420645951</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>286.11339042203639</v>
       </c>
       <c r="N21" s="3">
-        <f>F21* 1000/G21</f>
+        <f t="shared" si="3"/>
         <v>235.95505617977528</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50.158334242261105</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17530928618291583</v>
       </c>
       <c r="Q21" s="3">
-        <f>COS(ATAN((D21-E21)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99875233887784465</v>
       </c>
       <c r="R21" s="3"/>
@@ -4192,39 +4203,39 @@
         <v>13</v>
       </c>
       <c r="I22" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C22</f>
+        <f t="shared" si="0"/>
         <v>35814.125999999997</v>
       </c>
       <c r="J22" s="3">
-        <f>$B$2 * I22</f>
+        <f t="shared" si="1"/>
         <v>358.14125999999999</v>
       </c>
       <c r="K22" s="3">
-        <f>1/($B$3 * I22)</f>
+        <f t="shared" si="2"/>
         <v>279.21943425340044</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>78.921825746599552</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>288.98556119497846</v>
       </c>
       <c r="N22" s="3">
-        <f>F22* 1000/G22</f>
+        <f t="shared" si="3"/>
         <v>238.63636363636363</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50.349197558614833</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.1742273812934351</v>
       </c>
       <c r="Q22" s="3">
-        <f>COS(ATAN((D22-E22)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99875233887784465</v>
       </c>
       <c r="R22" s="3"/>
@@ -4252,39 +4263,39 @@
         <v>15</v>
       </c>
       <c r="I23" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C23</f>
+        <f t="shared" si="0"/>
         <v>36442.443999999996</v>
       </c>
       <c r="J23" s="3">
-        <f>$B$2 * I23</f>
+        <f t="shared" si="1"/>
         <v>364.42443999999995</v>
       </c>
       <c r="K23" s="3">
-        <f>1/($B$3 * I23)</f>
+        <f t="shared" si="2"/>
         <v>274.40530607661771</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>90.019133923382242</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>292.21130106879133</v>
       </c>
       <c r="N23" s="3">
-        <f>F23* 1000/G23</f>
+        <f t="shared" si="3"/>
         <v>241.37931034482762</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>50.831990723963713</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17395627937058133</v>
       </c>
       <c r="Q23" s="3">
-        <f>COS(ATAN((D23-E23)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.9982048454657787</v>
       </c>
       <c r="R23" s="3"/>
@@ -4312,39 +4323,39 @@
         <v>18</v>
       </c>
       <c r="I24" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C24</f>
+        <f t="shared" si="0"/>
         <v>37070.761999999995</v>
       </c>
       <c r="J24" s="3">
-        <f>$B$2 * I24</f>
+        <f t="shared" si="1"/>
         <v>370.70761999999996</v>
       </c>
       <c r="K24" s="3">
-        <f>1/($B$3 * I24)</f>
+        <f t="shared" si="2"/>
         <v>269.7543686854886</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>100.95325131451136</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>295.76267335647833</v>
       </c>
       <c r="N24" s="3">
-        <f>F24* 1000/G24</f>
+        <f t="shared" si="3"/>
         <v>244.18604651162792</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>51.576626844850409</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.17438517937213083</v>
       </c>
       <c r="Q24" s="3">
-        <f>COS(ATAN((D24-E24)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99755896714162673</v>
       </c>
       <c r="R24" s="3"/>
@@ -4372,39 +4383,39 @@
         <v>20</v>
       </c>
       <c r="I25" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C25</f>
+        <f t="shared" si="0"/>
         <v>37699.08</v>
       </c>
       <c r="J25" s="3">
-        <f>$B$2 * I25</f>
+        <f t="shared" si="1"/>
         <v>376.99080000000004</v>
       </c>
       <c r="K25" s="3">
-        <f>1/($B$3 * I25)</f>
+        <f t="shared" si="2"/>
         <v>265.25846254073042</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>111.73233745926962</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>299.61327613126912</v>
       </c>
       <c r="N25" s="3">
-        <f>F25* 1000/G25</f>
+        <f t="shared" si="3"/>
         <v>244.18604651162792</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>55.427229619641196</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.18499590650768408</v>
       </c>
       <c r="Q25" s="3">
-        <f>COS(ATAN((D25-E25)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99681527853612495</v>
       </c>
       <c r="R25" s="3"/>
@@ -4432,39 +4443,39 @@
         <v>22</v>
       </c>
       <c r="I26" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C26</f>
+        <f t="shared" si="0"/>
         <v>38327.398000000001</v>
       </c>
       <c r="J26" s="3">
-        <f>$B$2 * I26</f>
+        <f t="shared" si="1"/>
         <v>383.27397999999999</v>
       </c>
       <c r="K26" s="3">
-        <f>1/($B$3 * I26)</f>
+        <f t="shared" si="2"/>
         <v>260.90996315481681</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>122.36401684518319</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>303.73829626586155</v>
       </c>
       <c r="N26" s="3">
-        <f>F26* 1000/G26</f>
+        <f t="shared" si="3"/>
         <v>247.05882352941177</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>56.679472736449782</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.18660627728957283</v>
       </c>
       <c r="Q26" s="3">
-        <f>COS(ATAN((D26-E26)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99597443884322878</v>
       </c>
       <c r="R26" s="3"/>
@@ -4492,39 +4503,39 @@
         <v>35</v>
       </c>
       <c r="I27" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C27</f>
+        <f t="shared" si="0"/>
         <v>43982.259999999995</v>
       </c>
       <c r="J27" s="3">
-        <f>$B$2 * I27</f>
+        <f t="shared" si="1"/>
         <v>439.82259999999997</v>
       </c>
       <c r="K27" s="3">
-        <f>1/($B$3 * I27)</f>
+        <f t="shared" si="2"/>
         <v>227.36439646348325</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>212.45820353651672</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>349.88925140673291</v>
       </c>
       <c r="N27" s="3">
-        <f>F27* 1000/G27</f>
+        <f t="shared" si="3"/>
         <v>297.29729729729729</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52.591954109435619</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.15031028789249509</v>
       </c>
       <c r="Q27" s="3">
-        <f>COS(ATAN((D27-E27)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.99034174667433017</v>
       </c>
       <c r="R27" s="3"/>
@@ -4552,39 +4563,39 @@
         <v>40</v>
       </c>
       <c r="I28" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C28</f>
+        <f t="shared" si="0"/>
         <v>50265.439999999995</v>
       </c>
       <c r="J28" s="3">
-        <f>$B$2 * I28</f>
+        <f t="shared" si="1"/>
         <v>502.65439999999995</v>
       </c>
       <c r="K28" s="3">
-        <f>1/($B$3 * I28)</f>
+        <f t="shared" si="2"/>
         <v>198.94384690554782</v>
       </c>
       <c r="L28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>303.71055309445217</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>411.73304465507505</v>
       </c>
       <c r="N28" s="3">
-        <f>F28* 1000/G28</f>
+        <f t="shared" si="3"/>
         <v>359.375</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52.358044655075048</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.12716502922163422</v>
       </c>
       <c r="Q28" s="3">
-        <f>COS(ATAN((D28-E28)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98418332397369535</v>
       </c>
       <c r="R28" s="3"/>
@@ -4612,39 +4623,39 @@
         <v>50</v>
       </c>
       <c r="I29" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C29</f>
+        <f t="shared" si="0"/>
         <v>56548.619999999995</v>
       </c>
       <c r="J29" s="3">
-        <f>$B$2 * I29</f>
+        <f t="shared" si="1"/>
         <v>565.48619999999994</v>
       </c>
       <c r="K29" s="3">
-        <f>1/($B$3 * I29)</f>
+        <f t="shared" si="2"/>
         <v>176.83897502715362</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>388.64722497284629</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>477.83958132316144</v>
       </c>
       <c r="N29" s="3">
-        <f>F29* 1000/G29</f>
+        <f t="shared" si="3"/>
         <v>444.4444444444444</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>33.39513687871704</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.9887757699444344E-2</v>
       </c>
       <c r="Q29" s="3">
-        <f>COS(ATAN((D29-E29)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.98058067569092011</v>
       </c>
       <c r="R29" s="3"/>
@@ -4672,39 +4683,39 @@
         <v>54</v>
       </c>
       <c r="I30" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C30</f>
+        <f t="shared" si="0"/>
         <v>62831.799999999996</v>
       </c>
       <c r="J30" s="3">
-        <f>$B$2 * I30</f>
+        <f t="shared" si="1"/>
         <v>628.31799999999998</v>
       </c>
       <c r="K30" s="3">
-        <f>1/($B$3 * I30)</f>
+        <f t="shared" si="2"/>
         <v>159.15507752443827</v>
       </c>
       <c r="L30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>469.16292247556169</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>545.34195494736139</v>
       </c>
       <c r="N30" s="3">
-        <f>F30* 1000/G30</f>
+        <f t="shared" si="3"/>
         <v>510.63829787234039</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>34.703657075020999</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.3636506892947087E-2</v>
       </c>
       <c r="Q30" s="3">
-        <f>COS(ATAN((D30-E30)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97865349660197065</v>
       </c>
       <c r="R30" s="3"/>
@@ -4732,39 +4743,39 @@
         <v>56</v>
       </c>
       <c r="I31" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C31</f>
+        <f t="shared" si="0"/>
         <v>75398.16</v>
       </c>
       <c r="J31" s="3">
-        <f>$B$2 * I31</f>
+        <f t="shared" si="1"/>
         <v>753.98160000000007</v>
       </c>
       <c r="K31" s="3">
-        <f>1/($B$3 * I31)</f>
+        <f t="shared" si="2"/>
         <v>132.62923127036521</v>
       </c>
       <c r="L31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>621.35236872963492</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>680.70754816288627</v>
       </c>
       <c r="N31" s="3">
-        <f>F31* 1000/G31</f>
+        <f t="shared" si="3"/>
         <v>648.64864864864865</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>32.058899514237623</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>4.7096436055041747E-2</v>
       </c>
       <c r="Q31" s="3">
-        <f>COS(ATAN((D31-E31)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97664446670508998</v>
       </c>
       <c r="R31" s="3"/>
@@ -4792,39 +4803,39 @@
         <v>56</v>
       </c>
       <c r="I32" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C32</f>
+        <f t="shared" si="0"/>
         <v>87964.51999999999</v>
       </c>
       <c r="J32" s="3">
-        <f>$B$2 * I32</f>
+        <f t="shared" si="1"/>
         <v>879.64519999999993</v>
       </c>
       <c r="K32" s="3">
-        <f>1/($B$3 * I32)</f>
+        <f t="shared" si="2"/>
         <v>113.68219823174162</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>765.96300176825832</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>814.85171661955826</v>
       </c>
       <c r="N32" s="3">
-        <f>F32* 1000/G32</f>
+        <f t="shared" si="3"/>
         <v>827.58620689655174</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>12.734490276993483</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.5627984843454679E-2</v>
       </c>
       <c r="Q32" s="3">
-        <f>COS(ATAN((D32-E32)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97455518661489959</v>
       </c>
       <c r="R32" s="3"/>
@@ -4852,39 +4863,39 @@
         <v>52</v>
       </c>
       <c r="I33" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C33</f>
+        <f t="shared" si="0"/>
         <v>100530.87999999999</v>
       </c>
       <c r="J33" s="3">
-        <f>$B$2 * I33</f>
+        <f t="shared" si="1"/>
         <v>1005.3087999999999</v>
       </c>
       <c r="K33" s="3">
-        <f>1/($B$3 * I33)</f>
+        <f t="shared" si="2"/>
         <v>99.471923452773908</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>905.83687654722598</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>947.53598713338283</v>
       </c>
       <c r="N33" s="3">
-        <f>F33* 1000/G33</f>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>52.464012866617168</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.5368886859208981E-2</v>
       </c>
       <c r="Q33" s="3">
-        <f>COS(ATAN((D33-E33)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97238730198051748</v>
       </c>
       <c r="R33" s="3"/>
@@ -4912,39 +4923,39 @@
         <v>52</v>
       </c>
       <c r="I34" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C34</f>
+        <f t="shared" si="0"/>
         <v>113097.23999999999</v>
       </c>
       <c r="J34" s="3">
-        <f>$B$2 * I34</f>
+        <f t="shared" si="1"/>
         <v>1130.9723999999999</v>
       </c>
       <c r="K34" s="3">
-        <f>1/($B$3 * I34)</f>
+        <f t="shared" si="2"/>
         <v>88.419487513576811</v>
       </c>
       <c r="L34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1042.5529124864231</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1078.9812673693289</v>
       </c>
       <c r="N34" s="3">
-        <f>F34* 1000/G34</f>
+        <f t="shared" si="3"/>
         <v>1250</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>171.01873263067114</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.15850018698436999</v>
       </c>
       <c r="Q34" s="3">
-        <f>COS(ATAN((D34-E34)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97238730198051748</v>
       </c>
       <c r="R34" s="3"/>
@@ -4972,39 +4983,39 @@
         <v>45</v>
       </c>
       <c r="I35" s="3">
-        <f xml:space="preserve"> 2 * 3.14159 *C35</f>
+        <f t="shared" si="0"/>
         <v>125663.59999999999</v>
       </c>
       <c r="J35" s="3">
-        <f>$B$2 * I35</f>
+        <f t="shared" si="1"/>
         <v>1256.636</v>
       </c>
       <c r="K35" s="3">
-        <f>1/($B$3 * I35)</f>
+        <f t="shared" si="2"/>
         <v>79.577538762219135</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1177.0584612377809</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1209.4422769076052</v>
       </c>
       <c r="N35" s="3">
-        <f>F35* 1000/G35</f>
+        <f t="shared" si="3"/>
         <v>1470.5882352941178</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>261.14595838651258</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0.21592263092888617</v>
       </c>
       <c r="Q35" s="3">
-        <f>COS(ATAN((D35-E35)/$B$4))</f>
+        <f t="shared" si="4"/>
         <v>0.97238730198051748</v>
       </c>
       <c r="R35" s="3"/>
@@ -5056,9 +5067,7 @@
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5072,18 +5081,14 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -5097,31 +5102,14 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="R40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="R41" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Lab_5/Dataset.xlsx
+++ b/Lab_5/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CyberPhysics\Lab_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4D23C-83E5-4E00-B2D6-FFA97C353EDB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128BA4C1-A8BF-4DD0-A7F9-EFCE45DC970A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7485" xr2:uid="{8C120F4B-AD2E-4ED4-910E-1F69DECA8DE0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="7485" activeTab="1" xr2:uid="{8C120F4B-AD2E-4ED4-910E-1F69DECA8DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>f</t>
   </si>
@@ -109,6 +109,9 @@
   <si>
     <t>Q=</t>
   </si>
+  <si>
+    <t>Ul</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -164,6 +173,11 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -480,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CAD537-A225-407C-9EB5-544793E5FFBD}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +505,7 @@
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -611,7 +626,10 @@
         <v>0.97014250014533188</v>
       </c>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3">
+        <f>SQRT(1/(B2/B3-(B5^2)/2))/B3</f>
+        <v>32115.01844212689</v>
+      </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -1030,6 +1048,9 @@
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
       <c r="C9" s="3">
         <v>4400</v>
       </c>
@@ -1093,325 +1114,325 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
+    <row r="10" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="10">
         <v>4500</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="10">
         <v>5.4</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="10">
         <v>1.8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="10">
         <v>15.4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="10">
         <v>-34</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="10">
         <f t="shared" si="0"/>
         <v>28274.309999999998</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="10">
         <f t="shared" si="1"/>
         <v>282.74309999999997</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="10">
         <f t="shared" si="2"/>
         <v>353.67795005430725</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="10">
         <f t="shared" si="5"/>
         <v>-70.934850054307276</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="10">
         <f t="shared" si="6"/>
         <v>105.43127122551002</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="10">
         <f t="shared" si="3"/>
         <v>116.88311688311688</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="10">
         <f t="shared" si="7"/>
         <v>11.451845657606867</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="11">
         <f t="shared" si="8"/>
         <v>0.10861906078237624</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="10">
         <f t="shared" si="4"/>
         <v>0.99503719020998915</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="10">
         <v>4600</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="10">
         <v>5.4</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="10">
         <v>1.8</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="10">
         <v>15.8</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="10">
         <v>-27</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="10">
         <f t="shared" si="0"/>
         <v>28902.628000000001</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
         <v>289.02627999999999</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="10">
         <f t="shared" si="2"/>
         <v>345.98929896617005</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="10">
         <f t="shared" si="5"/>
         <v>-56.963018966170068</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="10">
         <f t="shared" si="6"/>
         <v>96.585638320302323</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="10">
         <f t="shared" si="3"/>
         <v>113.92405063291139</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="10">
         <f t="shared" si="7"/>
         <v>17.338412312609066</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="11">
         <f t="shared" si="8"/>
         <v>0.17951335844683783</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="10">
         <f t="shared" si="4"/>
         <v>0.99681527853612495</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
         <v>4700</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="10">
         <v>5.4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="10">
         <v>1.7</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="10">
         <v>16.2</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="10">
         <v>-21</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="10">
         <f t="shared" si="0"/>
         <v>29530.946</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="10">
         <f t="shared" si="1"/>
         <v>295.30946</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="10">
         <f t="shared" si="2"/>
         <v>338.62782452008139</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="10">
         <f t="shared" si="5"/>
         <v>-43.318364520081388</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="10">
         <f t="shared" si="6"/>
         <v>89.22152601639722</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="10">
         <f t="shared" si="3"/>
         <v>104.93827160493828</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="10">
         <f t="shared" si="7"/>
         <v>15.716745588541059</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="11">
         <f t="shared" si="8"/>
         <v>0.17615418935619437</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="10">
         <f t="shared" si="4"/>
         <v>0.99875233887784465</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="10">
         <v>4800</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="10">
         <v>5.4</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="10">
         <v>1.7</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="10">
         <v>16.5</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="10">
         <v>-14</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="10">
         <f t="shared" si="0"/>
         <v>30159.263999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
         <v>301.59264000000002</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="10">
         <f t="shared" si="2"/>
         <v>331.57307817591305</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="10">
         <f t="shared" si="5"/>
         <v>-29.980438175913037</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="10">
         <f t="shared" si="6"/>
         <v>83.563309372114645</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="10">
         <f t="shared" si="3"/>
         <v>103.03030303030303</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="10">
         <f t="shared" si="7"/>
         <v>19.466993658188386</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="11">
         <f t="shared" si="8"/>
         <v>0.23296101847163783</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="10">
         <f t="shared" si="4"/>
         <v>0.99955030352236673</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="10">
         <v>4900</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="10">
         <v>5.2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="10">
         <v>5.4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="10">
         <v>1.6</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="10">
         <v>16.600000000000001</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="10">
         <v>-7</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="10">
         <f t="shared" si="0"/>
         <v>30787.581999999999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="10">
         <f t="shared" si="1"/>
         <v>307.87581999999998</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="10">
         <f t="shared" si="2"/>
         <v>324.80628066211887</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="10">
         <f t="shared" si="5"/>
         <v>-16.93046066211889</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="10">
         <f t="shared" si="6"/>
         <v>79.816292185440162</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="10">
         <f t="shared" si="3"/>
         <v>96.385542168674689</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="10">
         <f t="shared" si="7"/>
         <v>16.569249983234528</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="11">
         <f t="shared" si="8"/>
         <v>0.20759232895382526</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="10">
         <f t="shared" si="4"/>
         <v>0.99980005998000698</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="8">
@@ -1541,325 +1562,325 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
+    <row r="17" spans="3:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="10">
         <v>5200</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="10">
         <v>5.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="10">
         <v>1.7</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="10">
         <v>16.5</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="10">
         <v>14</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="10">
         <f t="shared" si="0"/>
         <v>32672.536</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="10">
         <f t="shared" si="1"/>
         <v>326.72536000000002</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="10">
         <f t="shared" si="2"/>
         <v>306.06745677776587</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="10">
         <f t="shared" si="5"/>
         <v>20.657903222234154</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="10">
         <f t="shared" si="6"/>
         <v>80.689212200511605</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="10">
         <f t="shared" si="3"/>
         <v>103.03030303030303</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="10">
         <f t="shared" si="7"/>
         <v>22.341090829791426</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="11">
         <f t="shared" si="8"/>
         <v>0.27687828670670517</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="10">
         <f t="shared" si="4"/>
         <v>0.99920095872178938</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C18" s="3">
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="3:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="10">
         <v>5300</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="10">
         <v>5.5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="10">
         <v>1.7</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="10">
         <v>16.2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="10">
         <v>20</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="10">
         <f t="shared" si="0"/>
         <v>33300.853999999999</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="10">
         <f t="shared" si="1"/>
         <v>333.00853999999998</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="10">
         <f t="shared" si="2"/>
         <v>300.29259910271367</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="10">
         <f t="shared" si="5"/>
         <v>32.715940897286316</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="10">
         <f t="shared" si="6"/>
         <v>84.583289063471227</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="10">
         <f t="shared" si="3"/>
         <v>104.93827160493828</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="10">
         <f t="shared" si="7"/>
         <v>20.354982541467052</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="11">
         <f t="shared" si="8"/>
         <v>0.24065016585241431</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="10">
         <f t="shared" si="4"/>
         <v>0.9982048454657787</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="3">
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="3:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="10">
         <v>5400</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="10">
         <v>5.5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="10">
         <v>4.7</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="10">
         <v>1.7</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="10">
         <v>15.4</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="10">
         <v>25</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="10">
         <f t="shared" si="0"/>
         <v>33929.171999999999</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="10">
         <f t="shared" si="1"/>
         <v>339.29172</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="10">
         <f t="shared" si="2"/>
         <v>294.73162504525601</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="10">
         <f t="shared" si="5"/>
         <v>44.560094954743988</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="10">
         <f t="shared" si="6"/>
         <v>89.830963828603117</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="10">
         <f t="shared" si="3"/>
         <v>110.38961038961038</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="10">
         <f t="shared" si="7"/>
         <v>20.558646561007265</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="11">
         <f t="shared" si="8"/>
         <v>0.2288592450174867</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="10">
         <f t="shared" si="4"/>
         <v>0.99681527853612495</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C20" s="3">
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+    </row>
+    <row r="20" spans="3:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="10">
         <v>5500</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="10">
         <v>5.5</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="10">
         <v>1.8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="10">
         <v>15.6</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="10">
         <v>30</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="10">
         <f t="shared" si="0"/>
         <v>34557.49</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="10">
         <f t="shared" si="1"/>
         <v>345.57490000000001</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="10">
         <f t="shared" si="2"/>
         <v>289.3728682262514</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="10">
         <f t="shared" si="5"/>
         <v>56.202031773748615</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="10">
         <f t="shared" si="6"/>
         <v>96.138797451899975</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="10">
         <f t="shared" si="3"/>
         <v>115.38461538461539</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="10">
         <f t="shared" si="7"/>
         <v>19.245817932715411</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="11">
         <f t="shared" si="8"/>
         <v>0.20018783719803079</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="10">
         <f t="shared" si="4"/>
         <v>0.99597443884322878</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="3">
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+    </row>
+    <row r="21" spans="3:25" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
         <v>5600</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="10">
         <v>5.5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="10">
         <v>1.8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="10">
         <v>15.2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="10">
         <v>34</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="10">
         <f t="shared" si="0"/>
         <v>35185.807999999997</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="10">
         <f t="shared" si="1"/>
         <v>351.85807999999997</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="10">
         <f t="shared" si="2"/>
         <v>284.20549557935402</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="10">
         <f t="shared" si="5"/>
         <v>67.652584420645951</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="10">
         <f t="shared" si="6"/>
         <v>103.25149964427939</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="10">
         <f t="shared" si="3"/>
         <v>118.42105263157896</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="10">
         <f t="shared" si="7"/>
         <v>15.169552987299568</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="11">
         <f t="shared" si="8"/>
         <v>0.14691847614379935</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="10">
         <f t="shared" si="4"/>
         <v>0.9940043559354329</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C22" s="3">
@@ -2881,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC74E243-65A3-4BE4-A873-0A5C433422EA}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q35" sqref="A1:Q35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,7 +3015,7 @@
       </c>
       <c r="M2" s="3">
         <f>SQRT(($B$5*$B$5) + (L2*L2))</f>
-        <v>725.4886683541024</v>
+        <v>707.8374162971387</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ref="N2:N35" si="3">F2* 1000/G2</f>
@@ -3002,18 +3023,21 @@
       </c>
       <c r="O2" s="3">
         <f>ABS(M2-N2)</f>
-        <v>76.840019705453756</v>
+        <v>59.188767648490057</v>
       </c>
       <c r="P2" s="4">
         <f>O2/M2</f>
-        <v>0.10591484478975909</v>
+        <v>8.3619156441489345E-2</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" ref="Q2:Q35" si="4">COS(ATAN((D2-E2)/$B$4))</f>
         <v>0.97455518661489959</v>
       </c>
       <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="3">
+        <f>SQRT(1/(B2/B3-(B5^2)/2))/B3</f>
+        <v>36758.744199243178</v>
+      </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
@@ -3061,7 +3085,7 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3:M35" si="6">SQRT(($B$5*$B$5) + (L3*L3))</f>
-        <v>440.75245163135321</v>
+        <v>411.05075552667256</v>
       </c>
       <c r="N3" s="3">
         <f t="shared" si="3"/>
@@ -3069,339 +3093,342 @@
       </c>
       <c r="O3" s="3">
         <f t="shared" ref="O3:O35" si="7">ABS(M3-N3)</f>
-        <v>50.92194315677699</v>
+        <v>21.22024705209634</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P35" si="8">O3/M3</f>
-        <v>0.11553411210374451</v>
+        <v>5.1624396176835112E-2</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="4"/>
         <v>0.98058067569092011</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="S3" s="3">
+        <f>S2/(2*PI())</f>
+        <v>5850.3358411600857</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>3900</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="13">
         <v>1.8</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
         <v>3.1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="13">
         <v>7.9</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="14">
         <v>-35</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="10">
         <f t="shared" si="0"/>
         <v>24504.401999999998</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="10">
         <f t="shared" si="1"/>
         <v>245.04401999999999</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="10">
         <f t="shared" si="2"/>
         <v>408.08994237035455</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="10">
         <f t="shared" si="5"/>
         <v>-163.04592237035456</v>
       </c>
-      <c r="M4" s="3">
-        <f t="shared" si="6"/>
-        <v>322.28554544316705</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="M4" s="10">
+        <f t="shared" si="6"/>
+        <v>280.29979094105596</v>
+      </c>
+      <c r="N4" s="10">
         <f t="shared" si="3"/>
         <v>278.48101265822783</v>
       </c>
-      <c r="O4" s="3">
-        <f t="shared" si="7"/>
-        <v>43.804532784939227</v>
-      </c>
-      <c r="P4" s="4">
-        <f t="shared" si="8"/>
-        <v>0.13591839101783071</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="O4" s="10">
+        <f t="shared" si="7"/>
+        <v>1.8187782828281343</v>
+      </c>
+      <c r="P4" s="11">
+        <f t="shared" si="8"/>
+        <v>6.4886894018790185E-3</v>
+      </c>
+      <c r="Q4" s="10">
         <f t="shared" si="4"/>
         <v>0.99165561734323782</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>278</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="12">
+        <v>228</v>
+      </c>
+      <c r="C5" s="12">
         <v>4000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="13">
         <v>1.9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="13">
         <v>3.1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="13">
         <v>8.1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="14">
         <v>-33</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>25132.719999999998</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
         <v>251.32719999999998</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="10">
         <f t="shared" si="2"/>
         <v>397.88769381109563</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="10">
         <f t="shared" si="5"/>
         <v>-146.56049381109565</v>
       </c>
-      <c r="M5" s="3">
-        <f t="shared" si="6"/>
-        <v>314.2673676125986</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="M5" s="10">
+        <f t="shared" si="6"/>
+        <v>271.04239215693218</v>
+      </c>
+      <c r="N5" s="10">
         <f t="shared" si="3"/>
         <v>271.60493827160496</v>
       </c>
-      <c r="O5" s="3">
-        <f t="shared" si="7"/>
-        <v>42.66242934099364</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="8"/>
-        <v>0.13575201798738507</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="O5" s="10">
+        <f t="shared" si="7"/>
+        <v>0.56254611467278437</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="8"/>
+        <v>2.0754912550619499E-3</v>
+      </c>
+      <c r="Q5" s="10">
         <f t="shared" si="4"/>
         <v>0.9928768384869221</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <f>SQRT(B2/B3)/B5</f>
-        <v>1.1375099497008561</v>
-      </c>
-      <c r="C6">
+        <v>1.386963886038763</v>
+      </c>
+      <c r="C6" s="12">
         <v>4100</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="13">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <v>3.1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="14">
         <v>-30</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>25761.038</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="10">
         <f t="shared" si="1"/>
         <v>257.61038000000002</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="10">
         <f t="shared" si="2"/>
         <v>388.18311591326398</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="10">
         <f t="shared" si="5"/>
         <v>-130.57273591326395</v>
       </c>
-      <c r="M6" s="3">
-        <f t="shared" si="6"/>
-        <v>307.13716701805237</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="M6" s="10">
+        <f t="shared" si="6"/>
+        <v>262.74177316116862</v>
+      </c>
+      <c r="N6" s="10">
         <f t="shared" si="3"/>
         <v>268.29268292682929</v>
       </c>
-      <c r="O6" s="3">
-        <f t="shared" si="7"/>
-        <v>38.84448409122308</v>
-      </c>
-      <c r="P6" s="4">
-        <f t="shared" si="8"/>
-        <v>0.12647275635299438</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="O6" s="10">
+        <f t="shared" si="7"/>
+        <v>5.5509097656606627</v>
+      </c>
+      <c r="P6" s="11">
+        <f t="shared" si="8"/>
+        <v>2.1126864216812889E-2</v>
+      </c>
+      <c r="Q6" s="10">
         <f t="shared" si="4"/>
         <v>0.9940043559354329</v>
       </c>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C7">
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12">
         <v>4200</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="13">
         <v>2.1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="13">
         <v>3.1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="13">
         <v>2.1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="13">
         <v>8.4</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="14">
         <v>-28</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>26389.356</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="10">
         <f t="shared" si="1"/>
         <v>263.89355999999998</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="10">
         <f t="shared" si="2"/>
         <v>378.94066077247203</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="10">
         <f t="shared" si="5"/>
         <v>-115.04710077247205</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" si="6"/>
-        <v>300.86514486751594</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="M7" s="10">
+        <f t="shared" si="6"/>
+        <v>255.38174444574406</v>
+      </c>
+      <c r="N7" s="10">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" si="7"/>
-        <v>50.865144867515937</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" si="8"/>
-        <v>0.16906293645252288</v>
-      </c>
-      <c r="Q7" s="3">
+      <c r="O7" s="10">
+        <f t="shared" si="7"/>
+        <v>5.3817444457440615</v>
+      </c>
+      <c r="P7" s="11">
+        <f t="shared" si="8"/>
+        <v>2.1073332619855351E-2</v>
+      </c>
+      <c r="Q7" s="10">
         <f t="shared" si="4"/>
         <v>0.99503719020998915</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12">
         <v>4300</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="13">
         <v>3.1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="13">
         <v>2.1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="13">
         <v>8.5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="14">
         <v>-26</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>27017.673999999999</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
         <v>270.17674</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="10">
         <f t="shared" si="2"/>
         <v>370.12808726613548</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="10">
         <f t="shared" si="5"/>
         <v>-99.951347266135485</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" si="6"/>
-        <v>295.42219249798347</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="M8" s="10">
+        <f t="shared" si="6"/>
+        <v>248.94632317091092</v>
+      </c>
+      <c r="N8" s="10">
         <f t="shared" si="3"/>
         <v>247.05882352941177</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" si="7"/>
-        <v>48.363368968571706</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="8"/>
-        <v>0.16370932921331505</v>
-      </c>
-      <c r="Q8" s="3">
+      <c r="O8" s="10">
+        <f t="shared" si="7"/>
+        <v>1.8874996414991472</v>
+      </c>
+      <c r="P8" s="11">
+        <f t="shared" si="8"/>
+        <v>7.5819542841904456E-3</v>
+      </c>
+      <c r="Q8" s="10">
         <f t="shared" si="4"/>
         <v>0.99597443884322878</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9">
@@ -3440,7 +3467,7 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" si="6"/>
-        <v>290.77932133962094</v>
+        <v>243.41859772566789</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="3"/>
@@ -3448,11 +3475,11 @@
       </c>
       <c r="O9" s="3">
         <f t="shared" si="7"/>
-        <v>49.40001099479332</v>
+        <v>2.0392873808402783</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="8"/>
-        <v>0.16988832206914634</v>
+        <v>8.3776975132300677E-3</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="4"/>
@@ -3500,7 +3527,7 @@
       </c>
       <c r="M10" s="3">
         <f t="shared" si="6"/>
-        <v>286.90722011170624</v>
+        <v>238.77971637521279</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="3"/>
@@ -3508,11 +3535,11 @@
       </c>
       <c r="O10" s="3">
         <f t="shared" si="7"/>
-        <v>48.270856475342612</v>
+        <v>0.14335273884915978</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="8"/>
-        <v>0.16824552709600177</v>
+        <v>6.0035559563149281E-4</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="4"/>
@@ -3560,7 +3587,7 @@
       </c>
       <c r="M11" s="3">
         <f t="shared" si="6"/>
-        <v>283.77594247881592</v>
+        <v>235.00805418057539</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="3"/>
@@ -3568,11 +3595,11 @@
       </c>
       <c r="O11" s="3">
         <f t="shared" si="7"/>
-        <v>47.820886299040637</v>
+        <v>0.94700199919989814</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="8"/>
-        <v>0.1685163508975413</v>
+        <v>4.029657632381574E-3</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="4"/>
@@ -3620,7 +3647,7 @@
       </c>
       <c r="M12" s="3">
         <f t="shared" si="6"/>
-        <v>281.35472397792552</v>
+        <v>232.07860889081235</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="3"/>
@@ -3628,11 +3655,11 @@
       </c>
       <c r="O12" s="3">
         <f t="shared" si="7"/>
-        <v>45.399667798150233</v>
+        <v>3.876447288962936</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="8"/>
-        <v>0.16136095799732225</v>
+        <v>1.6703164964189852E-2</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="4"/>
@@ -3680,7 +3707,7 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="6"/>
-        <v>279.61192155060149</v>
+        <v>229.9626636504712</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="3"/>
@@ -3688,11 +3715,11 @@
       </c>
       <c r="O13" s="3">
         <f t="shared" si="7"/>
-        <v>46.278588217268151</v>
+        <v>3.3706696828621432</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="8"/>
-        <v>0.16551006824254128</v>
+        <v>1.4657464952594868E-2</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" si="4"/>
@@ -3740,7 +3767,7 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="6"/>
-        <v>278.51506332374834</v>
+        <v>228.62773344069953</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="3"/>
@@ -3748,11 +3775,11 @@
       </c>
       <c r="O14" s="3">
         <f t="shared" si="7"/>
-        <v>45.181729990414993</v>
+        <v>4.7055998926338134</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="8"/>
-        <v>0.16222364941854278</v>
+        <v>2.0581929505303569E-2</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" si="4"/>
@@ -3800,7 +3827,7 @@
       </c>
       <c r="M15" s="8">
         <f t="shared" si="6"/>
-        <v>278.03099123701986</v>
+        <v>228.03778653600332</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="3"/>
@@ -3808,11 +3835,11 @@
       </c>
       <c r="O15" s="8">
         <f t="shared" si="7"/>
-        <v>47.261760467789088</v>
+        <v>2.7314442332274496</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" si="8"/>
-        <v>0.16998738254865517</v>
+        <v>1.1978033442261116E-2</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="4"/>
@@ -3860,7 +3887,7 @@
       </c>
       <c r="M16" s="8">
         <f t="shared" si="6"/>
-        <v>278.12607543452049</v>
+        <v>228.15370660282639</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="3"/>
@@ -3868,11 +3895,11 @@
       </c>
       <c r="O16" s="8">
         <f t="shared" si="7"/>
-        <v>47.356844665289714</v>
+        <v>2.6155241664043842</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" si="8"/>
-        <v>0.17027114265105642</v>
+        <v>1.1463868833643498E-2</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="4"/>
@@ -3920,7 +3947,7 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="6"/>
-        <v>278.76647747808414</v>
+        <v>228.93394017825139</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="3"/>
@@ -3928,11 +3955,11 @@
       </c>
       <c r="O17" s="3">
         <f t="shared" si="7"/>
-        <v>45.433144144750798</v>
+        <v>4.3993931550819525</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="8"/>
-        <v>0.16297922388577954</v>
+        <v>1.9216867327127289E-2</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="4"/>
@@ -3980,7 +4007,7 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" si="6"/>
-        <v>279.91843952979366</v>
+        <v>230.33526171386509</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="3"/>
@@ -3988,11 +4015,11 @@
       </c>
       <c r="O18" s="3">
         <f t="shared" si="7"/>
-        <v>46.585106196460316</v>
+        <v>2.9980716194682486</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="8"/>
-        <v>0.16642385644444813</v>
+        <v>1.3016120923736876E-2</v>
       </c>
       <c r="Q18" s="3">
         <f t="shared" si="4"/>
@@ -4040,7 +4067,7 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="6"/>
-        <v>281.54857851244037</v>
+        <v>232.31358561731986</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="3"/>
@@ -4048,11 +4075,11 @@
       </c>
       <c r="O19" s="3">
         <f t="shared" si="7"/>
-        <v>48.215245179107029</v>
+        <v>1.0197477160134838</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="8"/>
-        <v>0.17125018152764929</v>
+        <v>4.3895311301047632E-3</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="4"/>
@@ -4100,7 +4127,7 @@
       </c>
       <c r="M20" s="3">
         <f t="shared" si="6"/>
-        <v>283.62416747431354</v>
+        <v>234.82476099316582</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="3"/>
@@ -4108,11 +4135,11 @@
       </c>
       <c r="O20" s="3">
         <f t="shared" si="7"/>
-        <v>47.669111294538254</v>
+        <v>1.1302951866094588</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="8"/>
-        <v>0.16807140138667984</v>
+        <v>4.8133560610431284E-3</v>
       </c>
       <c r="Q20" s="3">
         <f t="shared" si="4"/>
@@ -4160,7 +4187,7 @@
       </c>
       <c r="M21" s="3">
         <f t="shared" si="6"/>
-        <v>286.11339042203639</v>
+        <v>237.82529760055516</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="3"/>
@@ -4168,11 +4195,11 @@
       </c>
       <c r="O21" s="3">
         <f t="shared" si="7"/>
-        <v>50.158334242261105</v>
+        <v>1.8702414207798768</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="8"/>
-        <v>0.17530928618291583</v>
+        <v>7.8639296981815737E-3</v>
       </c>
       <c r="Q21" s="3">
         <f t="shared" si="4"/>
@@ -4220,7 +4247,7 @@
       </c>
       <c r="M22" s="3">
         <f t="shared" si="6"/>
-        <v>288.98556119497846</v>
+        <v>241.27298766993505</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" si="3"/>
@@ -4228,11 +4255,11 @@
       </c>
       <c r="O22" s="3">
         <f t="shared" si="7"/>
-        <v>50.349197558614833</v>
+        <v>2.6366240335714224</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="8"/>
-        <v>0.1742273812934351</v>
+        <v>1.0927970259059262E-2</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" si="4"/>
@@ -4280,7 +4307,7 @@
       </c>
       <c r="M23" s="3">
         <f t="shared" si="6"/>
-        <v>292.21130106879133</v>
+        <v>245.12740457222614</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="3"/>
@@ -4288,11 +4315,11 @@
       </c>
       <c r="O23" s="3">
         <f t="shared" si="7"/>
-        <v>50.831990723963713</v>
+        <v>3.7480942273985249</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="8"/>
-        <v>0.17395627937058133</v>
+        <v>1.5290392495850699E-2</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" si="4"/>
@@ -4340,7 +4367,7 @@
       </c>
       <c r="M24" s="3">
         <f t="shared" si="6"/>
-        <v>295.76267335647833</v>
+        <v>249.35027361318635</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="3"/>
@@ -4348,11 +4375,11 @@
       </c>
       <c r="O24" s="3">
         <f t="shared" si="7"/>
-        <v>51.576626844850409</v>
+        <v>5.1642271015584242</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="8"/>
-        <v>0.17438517937213083</v>
+        <v>2.0710733646796067E-2</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" si="4"/>
@@ -4363,245 +4390,245 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C25">
+    <row r="25" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="12">
         <v>6000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="13">
         <v>3.1</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="13">
         <v>2.1</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="13">
         <v>8.6</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="14">
         <v>20</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="10">
         <f t="shared" si="0"/>
         <v>37699.08</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="10">
         <f t="shared" si="1"/>
         <v>376.99080000000004</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="10">
         <f t="shared" si="2"/>
         <v>265.25846254073042</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="10">
         <f t="shared" si="5"/>
         <v>111.73233745926962</v>
       </c>
-      <c r="M25" s="3">
-        <f t="shared" si="6"/>
-        <v>299.61327613126912</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="M25" s="10">
+        <f t="shared" si="6"/>
+        <v>253.90572115277769</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="3"/>
         <v>244.18604651162792</v>
       </c>
-      <c r="O25" s="3">
-        <f t="shared" si="7"/>
-        <v>55.427229619641196</v>
-      </c>
-      <c r="P25" s="4">
-        <f t="shared" si="8"/>
-        <v>0.18499590650768408</v>
-      </c>
-      <c r="Q25" s="3">
+      <c r="O25" s="10">
+        <f t="shared" si="7"/>
+        <v>9.7196746411497656</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="8"/>
+        <v>3.8280644473155989E-2</v>
+      </c>
+      <c r="Q25" s="10">
         <f t="shared" si="4"/>
         <v>0.99681527853612495</v>
       </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C26">
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="26" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="12">
         <v>6100</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="13">
         <v>3.1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="13">
         <v>2.1</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="13">
         <v>8.5</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="14">
         <v>22</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="10">
         <f t="shared" si="0"/>
         <v>38327.398000000001</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="10">
         <f t="shared" si="1"/>
         <v>383.27397999999999</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="10">
         <f t="shared" si="2"/>
         <v>260.90996315481681</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="10">
         <f t="shared" si="5"/>
         <v>122.36401684518319</v>
       </c>
-      <c r="M26" s="3">
-        <f t="shared" si="6"/>
-        <v>303.73829626586155</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="M26" s="10">
+        <f t="shared" si="6"/>
+        <v>258.76041547827265</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="3"/>
         <v>247.05882352941177</v>
       </c>
-      <c r="O26" s="3">
-        <f t="shared" si="7"/>
-        <v>56.679472736449782</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="8"/>
-        <v>0.18660627728957283</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="O26" s="10">
+        <f t="shared" si="7"/>
+        <v>11.70159194886088</v>
+      </c>
+      <c r="P26" s="11">
+        <f t="shared" si="8"/>
+        <v>4.5221723451141345E-2</v>
+      </c>
+      <c r="Q26" s="10">
         <f t="shared" si="4"/>
         <v>0.99597443884322878</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C27">
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+    </row>
+    <row r="27" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="12">
         <v>7000</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="13">
         <v>3.1</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="13">
         <v>1.7</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="13">
         <v>7.4</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="14">
         <v>35</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="10">
         <f t="shared" si="0"/>
         <v>43982.259999999995</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="10">
         <f t="shared" si="1"/>
         <v>439.82259999999997</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="10">
         <f t="shared" si="2"/>
         <v>227.36439646348325</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="10">
         <f t="shared" si="5"/>
         <v>212.45820353651672</v>
       </c>
-      <c r="M27" s="3">
-        <f t="shared" si="6"/>
-        <v>349.88925140673291</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="M27" s="10">
+        <f t="shared" si="6"/>
+        <v>311.6448110428986</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="3"/>
         <v>297.29729729729729</v>
       </c>
-      <c r="O27" s="3">
-        <f t="shared" si="7"/>
-        <v>52.591954109435619</v>
-      </c>
-      <c r="P27" s="4">
-        <f t="shared" si="8"/>
-        <v>0.15031028789249509</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="O27" s="10">
+        <f t="shared" si="7"/>
+        <v>14.347513745601304</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="8"/>
+        <v>4.603803187862588E-2</v>
+      </c>
+      <c r="Q27" s="10">
         <f t="shared" si="4"/>
         <v>0.99034174667433017</v>
       </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C28">
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+    </row>
+    <row r="28" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="12">
         <v>8000</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="13">
         <v>3.1</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="13">
         <v>1.3</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="13">
         <v>6.4</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="14">
         <v>40</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="10">
         <f t="shared" si="0"/>
         <v>50265.439999999995</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="10">
         <f t="shared" si="1"/>
         <v>502.65439999999995</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="10">
         <f t="shared" si="2"/>
         <v>198.94384690554782</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="10">
         <f t="shared" si="5"/>
         <v>303.71055309445217</v>
       </c>
-      <c r="M28" s="3">
-        <f t="shared" si="6"/>
-        <v>411.73304465507505</v>
-      </c>
-      <c r="N28" s="3">
+      <c r="M28" s="10">
+        <f t="shared" si="6"/>
+        <v>379.76848218478852</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="3"/>
         <v>359.375</v>
       </c>
-      <c r="O28" s="3">
-        <f t="shared" si="7"/>
-        <v>52.358044655075048</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="8"/>
-        <v>0.12716502922163422</v>
-      </c>
-      <c r="Q28" s="3">
+      <c r="O28" s="10">
+        <f t="shared" si="7"/>
+        <v>20.393482184788525</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" si="8"/>
+        <v>5.3699775366996945E-2</v>
+      </c>
+      <c r="Q28" s="10">
         <f t="shared" si="4"/>
         <v>0.98418332397369535</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29">
@@ -4640,7 +4667,7 @@
       </c>
       <c r="M29" s="3">
         <f t="shared" si="6"/>
-        <v>477.83958132316144</v>
+        <v>450.58924252482348</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="3"/>
@@ -4648,11 +4675,11 @@
       </c>
       <c r="O29" s="3">
         <f t="shared" si="7"/>
-        <v>33.39513687871704</v>
+        <v>6.1447980803790756</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="8"/>
-        <v>6.9887757699444344E-2</v>
+        <v>1.3637249850767469E-2</v>
       </c>
       <c r="Q29" s="3">
         <f t="shared" si="4"/>
@@ -4700,7 +4727,7 @@
       </c>
       <c r="M30" s="3">
         <f t="shared" si="6"/>
-        <v>545.34195494736139</v>
+        <v>521.62999130208175</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="3"/>
@@ -4708,11 +4735,11 @@
       </c>
       <c r="O30" s="3">
         <f t="shared" si="7"/>
-        <v>34.703657075020999</v>
+        <v>10.99169342974136</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="8"/>
-        <v>6.3636506892947087E-2</v>
+        <v>2.1071820280701512E-2</v>
       </c>
       <c r="Q30" s="3">
         <f t="shared" si="4"/>
@@ -4760,7 +4787,7 @@
       </c>
       <c r="M31" s="3">
         <f t="shared" si="6"/>
-        <v>680.70754816288627</v>
+        <v>661.86310225448301</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="3"/>
@@ -4768,11 +4795,11 @@
       </c>
       <c r="O31" s="3">
         <f t="shared" si="7"/>
-        <v>32.058899514237623</v>
+        <v>13.214453605834365</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="8"/>
-        <v>4.7096436055041747E-2</v>
+        <v>1.996553903794062E-2</v>
       </c>
       <c r="Q31" s="3">
         <f t="shared" si="4"/>
@@ -4820,7 +4847,7 @@
       </c>
       <c r="M32" s="3">
         <f t="shared" si="6"/>
-        <v>814.85171661955826</v>
+        <v>799.17665135928553</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="3"/>
@@ -4828,11 +4855,11 @@
       </c>
       <c r="O32" s="3">
         <f t="shared" si="7"/>
-        <v>12.734490276993483</v>
+        <v>28.409555537266215</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="8"/>
-        <v>1.5627984843454679E-2</v>
+        <v>3.5548530464379322E-2</v>
       </c>
       <c r="Q32" s="3">
         <f t="shared" si="4"/>
@@ -4880,7 +4907,7 @@
       </c>
       <c r="M33" s="3">
         <f t="shared" si="6"/>
-        <v>947.53598713338283</v>
+        <v>934.09017065422233</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="3"/>
@@ -4888,11 +4915,11 @@
       </c>
       <c r="O33" s="3">
         <f t="shared" si="7"/>
-        <v>52.464012866617168</v>
+        <v>65.909829345777666</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="8"/>
-        <v>5.5368886859208981E-2</v>
+        <v>7.056045702698642E-2</v>
       </c>
       <c r="Q33" s="3">
         <f t="shared" si="4"/>
@@ -4940,7 +4967,7 @@
       </c>
       <c r="M34" s="3">
         <f t="shared" si="6"/>
-        <v>1078.9812673693289</v>
+        <v>1067.1928482396813</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="3"/>
@@ -4948,11 +4975,11 @@
       </c>
       <c r="O34" s="3">
         <f t="shared" si="7"/>
-        <v>171.01873263067114</v>
+        <v>182.80715176031867</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="8"/>
-        <v>0.15850018698436999</v>
+        <v>0.17129720468222434</v>
       </c>
       <c r="Q34" s="3">
         <f t="shared" si="4"/>
@@ -5000,7 +5027,7 @@
       </c>
       <c r="M35" s="3">
         <f t="shared" si="6"/>
-        <v>1209.4422769076052</v>
+        <v>1198.9372882563343</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="3"/>
@@ -5008,11 +5035,11 @@
       </c>
       <c r="O35" s="3">
         <f t="shared" si="7"/>
-        <v>261.14595838651258</v>
+        <v>271.65094703778345</v>
       </c>
       <c r="P35" s="4">
         <f t="shared" si="8"/>
-        <v>0.21592263092888617</v>
+        <v>0.22657644373781802</v>
       </c>
       <c r="Q35" s="3">
         <f t="shared" si="4"/>
